--- a/ct_izin.xlsx
+++ b/ct_izin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662">
   <si>
     <t>service_point</t>
   </si>
@@ -1966,6 +1966,15 @@
   </si>
   <si>
     <t>Wijaya Kusuma</t>
+  </si>
+  <si>
+    <t>nama_kota</t>
+  </si>
+  <si>
+    <t>nama_kecamatan</t>
+  </si>
+  <si>
+    <t>nama_kelurahan</t>
   </si>
   <si>
     <t>total_diajukan</t>
@@ -2006,12 +2015,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2032,36 +2041,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2086,8 +2065,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2102,53 +2165,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2161,27 +2179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2206,13 +2208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,37 +2220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2266,13 +2244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,7 +2262,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,37 +2334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,13 +2364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,25 +2382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,50 +2429,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2493,6 +2451,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2507,16 +2480,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2524,146 +2526,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27962,7 +27964,7 @@
   <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -27976,41 +27978,39 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" t="s">
-        <v>339</v>
+      <c r="B1" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>341</v>
       </c>
+      <c r="C2"/>
       <c r="E2">
         <v>8780</v>
       </c>
@@ -28031,10 +28031,10 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
       <c r="C3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" t="s">
         <v>342</v>
       </c>
       <c r="E3">
@@ -28057,11 +28057,11 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
       <c r="C4" t="s">
         <v>343</v>
-      </c>
-      <c r="D4" t="s">
-        <v>344</v>
       </c>
       <c r="E4">
         <v>2069</v>
@@ -28083,11 +28083,11 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
       <c r="C5" t="s">
         <v>345</v>
-      </c>
-      <c r="D5" t="s">
-        <v>346</v>
       </c>
       <c r="E5">
         <v>1237</v>
@@ -28109,11 +28109,11 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
       <c r="C6" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" t="s">
-        <v>348</v>
       </c>
       <c r="E6">
         <v>2273</v>
@@ -28135,11 +28135,11 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
       <c r="C7" t="s">
         <v>349</v>
-      </c>
-      <c r="D7" t="s">
-        <v>350</v>
       </c>
       <c r="E7">
         <v>2524</v>
@@ -28161,11 +28161,11 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
       <c r="C8" t="s">
         <v>351</v>
-      </c>
-      <c r="D8" t="s">
-        <v>352</v>
       </c>
       <c r="E8">
         <v>1079</v>
@@ -28187,11 +28187,11 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
       <c r="C9" t="s">
         <v>353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>344</v>
       </c>
       <c r="E9">
         <v>1404</v>
@@ -28213,11 +28213,11 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
       <c r="C10" t="s">
         <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>344</v>
       </c>
       <c r="E10">
         <v>1243</v>
@@ -28239,11 +28239,11 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
       <c r="C11" t="s">
         <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>344</v>
       </c>
       <c r="E11">
         <v>2437</v>
@@ -28265,11 +28265,11 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
       <c r="C12" t="s">
         <v>356</v>
-      </c>
-      <c r="D12" t="s">
-        <v>346</v>
       </c>
       <c r="E12">
         <v>1442</v>
@@ -28291,11 +28291,11 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
       <c r="C13" t="s">
         <v>357</v>
-      </c>
-      <c r="D13" t="s">
-        <v>348</v>
       </c>
       <c r="E13">
         <v>2025</v>
@@ -28317,11 +28317,11 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
       <c r="C14" t="s">
         <v>358</v>
-      </c>
-      <c r="D14" t="s">
-        <v>350</v>
       </c>
       <c r="E14">
         <v>1512</v>
@@ -28343,11 +28343,11 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
       <c r="C15" t="s">
         <v>359</v>
-      </c>
-      <c r="D15" t="s">
-        <v>344</v>
       </c>
       <c r="E15">
         <v>1236</v>
@@ -28369,11 +28369,11 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
       <c r="C16" t="s">
         <v>360</v>
-      </c>
-      <c r="D16" t="s">
-        <v>346</v>
       </c>
       <c r="E16">
         <v>455</v>
@@ -28395,11 +28395,11 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
       <c r="C17" t="s">
         <v>361</v>
-      </c>
-      <c r="D17" t="s">
-        <v>348</v>
       </c>
       <c r="E17">
         <v>2093</v>
@@ -28421,11 +28421,11 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
       <c r="C18" t="s">
         <v>362</v>
-      </c>
-      <c r="D18" t="s">
-        <v>350</v>
       </c>
       <c r="E18">
         <v>3205</v>
@@ -28447,11 +28447,11 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
       <c r="C19" t="s">
         <v>363</v>
-      </c>
-      <c r="D19" t="s">
-        <v>350</v>
       </c>
       <c r="E19">
         <v>1855</v>
@@ -28473,11 +28473,11 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
       <c r="C20" t="s">
         <v>364</v>
-      </c>
-      <c r="D20" t="s">
-        <v>348</v>
       </c>
       <c r="E20">
         <v>2547</v>
@@ -28499,11 +28499,11 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
       <c r="C21" t="s">
         <v>365</v>
-      </c>
-      <c r="D21" t="s">
-        <v>352</v>
       </c>
       <c r="E21">
         <v>1636</v>
@@ -28525,11 +28525,11 @@
       <c r="A22" t="s">
         <v>41</v>
       </c>
+      <c r="B22" t="s">
+        <v>346</v>
+      </c>
       <c r="C22" t="s">
         <v>366</v>
-      </c>
-      <c r="D22" t="s">
-        <v>346</v>
       </c>
       <c r="E22">
         <v>954</v>
@@ -28551,11 +28551,11 @@
       <c r="A23" t="s">
         <v>42</v>
       </c>
+      <c r="B23" t="s">
+        <v>348</v>
+      </c>
       <c r="C23" t="s">
         <v>367</v>
-      </c>
-      <c r="D23" t="s">
-        <v>348</v>
       </c>
       <c r="E23">
         <v>2298</v>
@@ -28577,11 +28577,11 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
       <c r="C24" t="s">
         <v>368</v>
-      </c>
-      <c r="D24" t="s">
-        <v>352</v>
       </c>
       <c r="E24">
         <v>1359</v>
@@ -28603,11 +28603,11 @@
       <c r="A25" t="s">
         <v>44</v>
       </c>
+      <c r="B25" t="s">
+        <v>344</v>
+      </c>
       <c r="C25" t="s">
         <v>369</v>
-      </c>
-      <c r="D25" t="s">
-        <v>344</v>
       </c>
       <c r="E25">
         <v>1864</v>
@@ -28629,11 +28629,11 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
+      <c r="B26" t="s">
+        <v>344</v>
+      </c>
       <c r="C26" t="s">
         <v>370</v>
-      </c>
-      <c r="D26" t="s">
-        <v>344</v>
       </c>
       <c r="E26">
         <v>894</v>
@@ -28655,11 +28655,11 @@
       <c r="A27" t="s">
         <v>46</v>
       </c>
+      <c r="B27" t="s">
+        <v>350</v>
+      </c>
       <c r="C27" t="s">
         <v>371</v>
-      </c>
-      <c r="D27" t="s">
-        <v>350</v>
       </c>
       <c r="E27">
         <v>859</v>
@@ -28681,11 +28681,11 @@
       <c r="A28" t="s">
         <v>47</v>
       </c>
+      <c r="B28" t="s">
+        <v>344</v>
+      </c>
       <c r="C28" t="s">
         <v>372</v>
-      </c>
-      <c r="D28" t="s">
-        <v>344</v>
       </c>
       <c r="E28">
         <v>692</v>
@@ -28707,11 +28707,11 @@
       <c r="A29" t="s">
         <v>48</v>
       </c>
+      <c r="B29" t="s">
+        <v>346</v>
+      </c>
       <c r="C29" t="s">
         <v>373</v>
-      </c>
-      <c r="D29" t="s">
-        <v>346</v>
       </c>
       <c r="E29">
         <v>1528</v>
@@ -28733,11 +28733,11 @@
       <c r="A30" t="s">
         <v>49</v>
       </c>
+      <c r="B30" t="s">
+        <v>352</v>
+      </c>
       <c r="C30" t="s">
         <v>374</v>
-      </c>
-      <c r="D30" t="s">
-        <v>352</v>
       </c>
       <c r="E30">
         <v>747</v>
@@ -28759,11 +28759,11 @@
       <c r="A31" t="s">
         <v>50</v>
       </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
       <c r="C31" t="s">
         <v>375</v>
-      </c>
-      <c r="D31" t="s">
-        <v>348</v>
       </c>
       <c r="E31">
         <v>2146</v>
@@ -28785,11 +28785,11 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
+      <c r="B32" t="s">
+        <v>350</v>
+      </c>
       <c r="C32" t="s">
         <v>376</v>
-      </c>
-      <c r="D32" t="s">
-        <v>350</v>
       </c>
       <c r="E32">
         <v>1409</v>
@@ -28811,11 +28811,11 @@
       <c r="A33" t="s">
         <v>52</v>
       </c>
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
       <c r="C33" t="s">
         <v>377</v>
-      </c>
-      <c r="D33" t="s">
-        <v>350</v>
       </c>
       <c r="E33">
         <v>1753</v>
@@ -28837,11 +28837,11 @@
       <c r="A34" t="s">
         <v>53</v>
       </c>
+      <c r="B34" t="s">
+        <v>344</v>
+      </c>
       <c r="C34" t="s">
         <v>378</v>
-      </c>
-      <c r="D34" t="s">
-        <v>344</v>
       </c>
       <c r="E34">
         <v>793</v>
@@ -28863,11 +28863,11 @@
       <c r="A35" t="s">
         <v>54</v>
       </c>
+      <c r="B35" t="s">
+        <v>352</v>
+      </c>
       <c r="C35" t="s">
         <v>379</v>
-      </c>
-      <c r="D35" t="s">
-        <v>352</v>
       </c>
       <c r="E35">
         <v>2599</v>
@@ -28889,11 +28889,11 @@
       <c r="A36" t="s">
         <v>55</v>
       </c>
+      <c r="B36" t="s">
+        <v>350</v>
+      </c>
       <c r="C36" t="s">
         <v>380</v>
-      </c>
-      <c r="D36" t="s">
-        <v>350</v>
       </c>
       <c r="E36">
         <v>1025</v>
@@ -28915,11 +28915,11 @@
       <c r="A37" t="s">
         <v>56</v>
       </c>
+      <c r="B37" t="s">
+        <v>344</v>
+      </c>
       <c r="C37" t="s">
         <v>381</v>
-      </c>
-      <c r="D37" t="s">
-        <v>344</v>
       </c>
       <c r="E37">
         <v>2135</v>
@@ -28941,11 +28941,11 @@
       <c r="A38" t="s">
         <v>57</v>
       </c>
+      <c r="B38" t="s">
+        <v>346</v>
+      </c>
       <c r="C38" t="s">
         <v>382</v>
-      </c>
-      <c r="D38" t="s">
-        <v>346</v>
       </c>
       <c r="E38">
         <v>832</v>
@@ -28967,11 +28967,11 @@
       <c r="A39" t="s">
         <v>58</v>
       </c>
+      <c r="B39" t="s">
+        <v>346</v>
+      </c>
       <c r="C39" t="s">
         <v>383</v>
-      </c>
-      <c r="D39" t="s">
-        <v>346</v>
       </c>
       <c r="E39">
         <v>3176</v>
@@ -28993,11 +28993,11 @@
       <c r="A40" t="s">
         <v>59</v>
       </c>
+      <c r="B40" t="s">
+        <v>350</v>
+      </c>
       <c r="C40" t="s">
         <v>384</v>
-      </c>
-      <c r="D40" t="s">
-        <v>350</v>
       </c>
       <c r="E40">
         <v>2343</v>
@@ -29019,11 +29019,11 @@
       <c r="A41" t="s">
         <v>60</v>
       </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
       <c r="C41" t="s">
         <v>385</v>
-      </c>
-      <c r="D41" t="s">
-        <v>348</v>
       </c>
       <c r="E41">
         <v>692</v>
@@ -29045,11 +29045,11 @@
       <c r="A42" t="s">
         <v>61</v>
       </c>
+      <c r="B42" t="s">
+        <v>348</v>
+      </c>
       <c r="C42" t="s">
         <v>386</v>
-      </c>
-      <c r="D42" t="s">
-        <v>348</v>
       </c>
       <c r="E42">
         <v>651</v>
@@ -29071,11 +29071,11 @@
       <c r="A43" t="s">
         <v>62</v>
       </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
       <c r="C43" t="s">
         <v>387</v>
-      </c>
-      <c r="D43" t="s">
-        <v>346</v>
       </c>
       <c r="E43">
         <v>1509</v>
@@ -29097,11 +29097,11 @@
       <c r="A44" t="s">
         <v>63</v>
       </c>
+      <c r="B44" t="s">
+        <v>352</v>
+      </c>
       <c r="C44" t="s">
         <v>388</v>
-      </c>
-      <c r="D44" t="s">
-        <v>352</v>
       </c>
       <c r="E44">
         <v>1924</v>
@@ -29123,11 +29123,11 @@
       <c r="A45" t="s">
         <v>64</v>
       </c>
+      <c r="B45" t="s">
+        <v>350</v>
+      </c>
       <c r="C45" t="s">
         <v>389</v>
-      </c>
-      <c r="D45" t="s">
-        <v>350</v>
       </c>
       <c r="E45">
         <v>1879</v>
@@ -29149,14 +29149,14 @@
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>390</v>
+      <c r="B46" t="s">
+        <v>352</v>
       </c>
       <c r="C46" t="s">
         <v>374</v>
       </c>
-      <c r="D46" t="s">
-        <v>352</v>
+      <c r="D46" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="E46">
         <v>290</v>
@@ -29178,14 +29178,14 @@
       <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>391</v>
+      <c r="B47" t="s">
+        <v>348</v>
       </c>
       <c r="C47" t="s">
         <v>386</v>
       </c>
-      <c r="D47" t="s">
-        <v>348</v>
+      <c r="D47" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="E47">
         <v>506</v>
@@ -29207,14 +29207,14 @@
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>392</v>
+      <c r="B48" t="s">
+        <v>348</v>
       </c>
       <c r="C48" t="s">
         <v>367</v>
       </c>
-      <c r="D48" t="s">
-        <v>348</v>
+      <c r="D48" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="E48">
         <v>650</v>
@@ -29236,14 +29236,14 @@
       <c r="A49" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>393</v>
+      <c r="B49" t="s">
+        <v>344</v>
       </c>
       <c r="C49" t="s">
         <v>353</v>
       </c>
-      <c r="D49" t="s">
-        <v>344</v>
+      <c r="D49" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="E49">
         <v>597</v>
@@ -29265,14 +29265,14 @@
       <c r="A50" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>394</v>
+      <c r="B50" t="s">
+        <v>344</v>
       </c>
       <c r="C50" t="s">
         <v>353</v>
       </c>
-      <c r="D50" t="s">
-        <v>344</v>
+      <c r="D50" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="E50">
         <v>574</v>
@@ -29294,14 +29294,14 @@
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>395</v>
+      <c r="B51" t="s">
+        <v>350</v>
       </c>
       <c r="C51" t="s">
         <v>362</v>
       </c>
-      <c r="D51" t="s">
-        <v>350</v>
+      <c r="D51" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="E51">
         <v>388</v>
@@ -29323,14 +29323,14 @@
       <c r="A52" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>396</v>
+      <c r="B52" t="s">
+        <v>348</v>
       </c>
       <c r="C52" t="s">
         <v>397</v>
       </c>
-      <c r="D52" t="s">
-        <v>348</v>
+      <c r="D52" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="E52">
         <v>282</v>
@@ -29352,14 +29352,14 @@
       <c r="A53" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>398</v>
+      <c r="B53" t="s">
+        <v>344</v>
       </c>
       <c r="C53" t="s">
         <v>369</v>
       </c>
-      <c r="D53" t="s">
-        <v>344</v>
+      <c r="D53" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="E53">
         <v>762</v>
@@ -29381,14 +29381,14 @@
       <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>399</v>
+      <c r="B54" t="s">
+        <v>346</v>
       </c>
       <c r="C54" t="s">
         <v>387</v>
       </c>
-      <c r="D54" t="s">
-        <v>346</v>
+      <c r="D54" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="E54">
         <v>649</v>
@@ -29410,14 +29410,14 @@
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>400</v>
+      <c r="B55" t="s">
+        <v>344</v>
       </c>
       <c r="C55" t="s">
         <v>359</v>
       </c>
-      <c r="D55" t="s">
-        <v>344</v>
+      <c r="D55" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="E55">
         <v>538</v>
@@ -29439,14 +29439,14 @@
       <c r="A56" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>401</v>
+      <c r="B56" t="s">
+        <v>350</v>
       </c>
       <c r="C56" t="s">
         <v>380</v>
       </c>
-      <c r="D56" t="s">
-        <v>350</v>
+      <c r="D56" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="E56">
         <v>857</v>
@@ -29468,14 +29468,14 @@
       <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>402</v>
+      <c r="B57" t="s">
+        <v>350</v>
       </c>
       <c r="C57" t="s">
         <v>389</v>
       </c>
-      <c r="D57" t="s">
-        <v>350</v>
+      <c r="D57" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="E57">
         <v>1070</v>
@@ -29497,14 +29497,14 @@
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>403</v>
+      <c r="B58" t="s">
+        <v>346</v>
       </c>
       <c r="C58" t="s">
         <v>366</v>
       </c>
-      <c r="D58" t="s">
-        <v>346</v>
+      <c r="D58" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="E58">
         <v>286</v>
@@ -29526,14 +29526,14 @@
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>404</v>
+      <c r="B59" t="s">
+        <v>344</v>
       </c>
       <c r="C59" t="s">
         <v>343</v>
       </c>
-      <c r="D59" t="s">
-        <v>344</v>
+      <c r="D59" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="E59">
         <v>1658</v>
@@ -29555,14 +29555,14 @@
       <c r="A60" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>405</v>
+      <c r="B60" t="s">
+        <v>344</v>
       </c>
       <c r="C60" t="s">
         <v>343</v>
       </c>
-      <c r="D60" t="s">
-        <v>344</v>
+      <c r="D60" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="E60">
         <v>1073</v>
@@ -29584,14 +29584,14 @@
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>406</v>
+      <c r="B61" t="s">
+        <v>344</v>
       </c>
       <c r="C61" t="s">
         <v>369</v>
       </c>
-      <c r="D61" t="s">
-        <v>344</v>
+      <c r="D61" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="E61">
         <v>1265</v>
@@ -29613,14 +29613,14 @@
       <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>407</v>
+      <c r="B62" t="s">
+        <v>344</v>
       </c>
       <c r="C62" t="s">
         <v>353</v>
       </c>
-      <c r="D62" t="s">
-        <v>344</v>
+      <c r="D62" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="E62">
         <v>465</v>
@@ -29642,14 +29642,14 @@
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>408</v>
+      <c r="B63" t="s">
+        <v>346</v>
       </c>
       <c r="C63" t="s">
         <v>345</v>
       </c>
-      <c r="D63" t="s">
-        <v>346</v>
+      <c r="D63" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="E63">
         <v>339</v>
@@ -29671,14 +29671,14 @@
       <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>409</v>
+      <c r="B64" t="s">
+        <v>346</v>
       </c>
       <c r="C64" t="s">
         <v>345</v>
       </c>
-      <c r="D64" t="s">
-        <v>346</v>
+      <c r="D64" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="E64">
         <v>744</v>
@@ -29700,14 +29700,14 @@
       <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>410</v>
+      <c r="B65" t="s">
+        <v>346</v>
       </c>
       <c r="C65" t="s">
         <v>345</v>
       </c>
-      <c r="D65" t="s">
-        <v>346</v>
+      <c r="D65" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="E65">
         <v>1346</v>
@@ -29729,14 +29729,14 @@
       <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>411</v>
+      <c r="B66" t="s">
+        <v>348</v>
       </c>
       <c r="C66" t="s">
         <v>347</v>
       </c>
-      <c r="D66" t="s">
-        <v>348</v>
+      <c r="D66" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="E66">
         <v>1592</v>
@@ -29758,14 +29758,14 @@
       <c r="A67" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>412</v>
+      <c r="B67" t="s">
+        <v>348</v>
       </c>
       <c r="C67" t="s">
         <v>347</v>
       </c>
-      <c r="D67" t="s">
-        <v>348</v>
+      <c r="D67" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="E67">
         <v>1325</v>
@@ -29787,14 +29787,14 @@
       <c r="A68" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>413</v>
+      <c r="B68" t="s">
+        <v>344</v>
       </c>
       <c r="C68" t="s">
         <v>353</v>
       </c>
-      <c r="D68" t="s">
-        <v>344</v>
+      <c r="D68" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="E68">
         <v>884</v>
@@ -29816,14 +29816,14 @@
       <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>414</v>
+      <c r="B69" t="s">
+        <v>346</v>
       </c>
       <c r="C69" t="s">
         <v>356</v>
       </c>
-      <c r="D69" t="s">
-        <v>346</v>
+      <c r="D69" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="E69">
         <v>458</v>
@@ -29845,14 +29845,14 @@
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>415</v>
+      <c r="B70" t="s">
+        <v>350</v>
       </c>
       <c r="C70" t="s">
         <v>358</v>
       </c>
-      <c r="D70" t="s">
-        <v>350</v>
+      <c r="D70" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="E70">
         <v>585</v>
@@ -29874,14 +29874,14 @@
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>416</v>
+      <c r="B71" t="s">
+        <v>344</v>
       </c>
       <c r="C71" t="s">
         <v>378</v>
       </c>
-      <c r="D71" t="s">
-        <v>344</v>
+      <c r="D71" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="E71">
         <v>588</v>
@@ -29903,14 +29903,14 @@
       <c r="A72" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>417</v>
+      <c r="B72" t="s">
+        <v>346</v>
       </c>
       <c r="C72" t="s">
         <v>373</v>
       </c>
-      <c r="D72" t="s">
-        <v>346</v>
+      <c r="D72" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="E72">
         <v>231</v>
@@ -29932,14 +29932,14 @@
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>418</v>
+      <c r="B73" t="s">
+        <v>350</v>
       </c>
       <c r="C73" t="s">
         <v>376</v>
       </c>
-      <c r="D73" t="s">
-        <v>350</v>
+      <c r="D73" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="E73">
         <v>156</v>
@@ -29961,14 +29961,14 @@
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>419</v>
+      <c r="B74" t="s">
+        <v>350</v>
       </c>
       <c r="C74" t="s">
         <v>349</v>
       </c>
-      <c r="D74" t="s">
-        <v>350</v>
+      <c r="D74" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="E74">
         <v>2195</v>
@@ -29990,14 +29990,14 @@
       <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>420</v>
+      <c r="B75" t="s">
+        <v>350</v>
       </c>
       <c r="C75" t="s">
         <v>349</v>
       </c>
-      <c r="D75" t="s">
-        <v>350</v>
+      <c r="D75" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="E75">
         <v>1549</v>
@@ -30019,14 +30019,14 @@
       <c r="A76" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>421</v>
+      <c r="B76" t="s">
+        <v>344</v>
       </c>
       <c r="C76" t="s">
         <v>353</v>
       </c>
-      <c r="D76" t="s">
-        <v>344</v>
+      <c r="D76" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="E76">
         <v>524</v>
@@ -30048,14 +30048,14 @@
       <c r="A77" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>422</v>
+      <c r="B77" t="s">
+        <v>344</v>
       </c>
       <c r="C77" t="s">
         <v>369</v>
       </c>
-      <c r="D77" t="s">
-        <v>344</v>
+      <c r="D77" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="E77">
         <v>689</v>
@@ -30077,14 +30077,14 @@
       <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>351</v>
+      <c r="B78" t="s">
+        <v>352</v>
       </c>
       <c r="C78" t="s">
         <v>351</v>
       </c>
-      <c r="D78" t="s">
-        <v>352</v>
+      <c r="D78" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="E78">
         <v>1495</v>
@@ -30106,14 +30106,14 @@
       <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>353</v>
+      <c r="B79" t="s">
+        <v>344</v>
       </c>
       <c r="C79" t="s">
         <v>353</v>
       </c>
-      <c r="D79" t="s">
-        <v>344</v>
+      <c r="D79" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E79">
         <v>734</v>
@@ -30135,14 +30135,14 @@
       <c r="A80" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>423</v>
+      <c r="B80" t="s">
+        <v>350</v>
       </c>
       <c r="C80" t="s">
         <v>358</v>
       </c>
-      <c r="D80" t="s">
-        <v>350</v>
+      <c r="D80" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="E80">
         <v>570</v>
@@ -30164,14 +30164,14 @@
       <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>424</v>
+      <c r="B81" t="s">
+        <v>350</v>
       </c>
       <c r="C81" t="s">
         <v>362</v>
       </c>
-      <c r="D81" t="s">
-        <v>350</v>
+      <c r="D81" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="E81">
         <v>359</v>
@@ -30193,14 +30193,14 @@
       <c r="A82" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>425</v>
+      <c r="B82" t="s">
+        <v>350</v>
       </c>
       <c r="C82" t="s">
         <v>362</v>
       </c>
-      <c r="D82" t="s">
-        <v>350</v>
+      <c r="D82" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="E82">
         <v>696</v>
@@ -30222,14 +30222,14 @@
       <c r="A83" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>426</v>
+      <c r="B83" t="s">
+        <v>344</v>
       </c>
       <c r="C83" t="s">
         <v>359</v>
       </c>
-      <c r="D83" t="s">
-        <v>344</v>
+      <c r="D83" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="E83">
         <v>505</v>
@@ -30251,14 +30251,14 @@
       <c r="A84" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>427</v>
+      <c r="B84" t="s">
+        <v>344</v>
       </c>
       <c r="C84" t="s">
         <v>359</v>
       </c>
-      <c r="D84" t="s">
-        <v>344</v>
+      <c r="D84" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="E84">
         <v>716</v>
@@ -30280,14 +30280,14 @@
       <c r="A85" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>428</v>
+      <c r="B85" t="s">
+        <v>344</v>
       </c>
       <c r="C85" t="s">
         <v>359</v>
       </c>
-      <c r="D85" t="s">
-        <v>344</v>
+      <c r="D85" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="E85">
         <v>591</v>
@@ -30309,14 +30309,14 @@
       <c r="A86" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>429</v>
+      <c r="B86" t="s">
+        <v>344</v>
       </c>
       <c r="C86" t="s">
         <v>359</v>
       </c>
-      <c r="D86" t="s">
-        <v>344</v>
+      <c r="D86" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="E86">
         <v>339</v>
@@ -30338,14 +30338,14 @@
       <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>430</v>
+      <c r="B87" t="s">
+        <v>344</v>
       </c>
       <c r="C87" t="s">
         <v>359</v>
       </c>
-      <c r="D87" t="s">
-        <v>344</v>
+      <c r="D87" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="E87">
         <v>652</v>
@@ -30367,14 +30367,14 @@
       <c r="A88" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>431</v>
+      <c r="B88" t="s">
+        <v>344</v>
       </c>
       <c r="C88" t="s">
         <v>359</v>
       </c>
-      <c r="D88" t="s">
-        <v>344</v>
+      <c r="D88" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="E88">
         <v>647</v>
@@ -30396,14 +30396,14 @@
       <c r="A89" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>432</v>
+      <c r="B89" t="s">
+        <v>350</v>
       </c>
       <c r="C89" t="s">
         <v>363</v>
       </c>
-      <c r="D89" t="s">
-        <v>350</v>
+      <c r="D89" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="E89">
         <v>381</v>
@@ -30425,14 +30425,14 @@
       <c r="A90" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>354</v>
+      <c r="B90" t="s">
+        <v>344</v>
       </c>
       <c r="C90" t="s">
         <v>354</v>
       </c>
-      <c r="D90" t="s">
-        <v>344</v>
+      <c r="D90" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="E90">
         <v>849</v>
@@ -30454,14 +30454,14 @@
       <c r="A91" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>433</v>
+      <c r="B91" t="s">
+        <v>346</v>
       </c>
       <c r="C91" t="s">
         <v>387</v>
       </c>
-      <c r="D91" t="s">
-        <v>346</v>
+      <c r="D91" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="E91">
         <v>266</v>
@@ -30483,14 +30483,14 @@
       <c r="A92" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>355</v>
+      <c r="B92" t="s">
+        <v>344</v>
       </c>
       <c r="C92" t="s">
         <v>355</v>
       </c>
-      <c r="D92" t="s">
-        <v>344</v>
+      <c r="D92" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="E92">
         <v>1952</v>
@@ -30512,14 +30512,14 @@
       <c r="A93" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>434</v>
+      <c r="B93" t="s">
+        <v>350</v>
       </c>
       <c r="C93" t="s">
         <v>376</v>
       </c>
-      <c r="D93" t="s">
-        <v>350</v>
+      <c r="D93" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="E93">
         <v>780</v>
@@ -30541,14 +30541,14 @@
       <c r="A94" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>435</v>
+      <c r="B94" t="s">
+        <v>348</v>
       </c>
       <c r="C94" t="s">
         <v>364</v>
       </c>
-      <c r="D94" t="s">
-        <v>348</v>
+      <c r="D94" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="E94">
         <v>714</v>
@@ -30570,14 +30570,14 @@
       <c r="A95" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>436</v>
+      <c r="B95" t="s">
+        <v>348</v>
       </c>
       <c r="C95" t="s">
         <v>347</v>
       </c>
-      <c r="D95" t="s">
-        <v>348</v>
+      <c r="D95" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="E95">
         <v>857</v>
@@ -30599,14 +30599,14 @@
       <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>437</v>
+      <c r="B96" t="s">
+        <v>348</v>
       </c>
       <c r="C96" t="s">
         <v>364</v>
       </c>
-      <c r="D96" t="s">
-        <v>348</v>
+      <c r="D96" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="E96">
         <v>240</v>
@@ -30628,14 +30628,14 @@
       <c r="A97" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>438</v>
+      <c r="B97" t="s">
+        <v>348</v>
       </c>
       <c r="C97" t="s">
         <v>364</v>
       </c>
-      <c r="D97" t="s">
-        <v>348</v>
+      <c r="D97" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="E97">
         <v>291</v>
@@ -30657,14 +30657,14 @@
       <c r="A98" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>439</v>
+      <c r="B98" t="s">
+        <v>348</v>
       </c>
       <c r="C98" t="s">
         <v>364</v>
       </c>
-      <c r="D98" t="s">
-        <v>348</v>
+      <c r="D98" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E98">
         <v>296</v>
@@ -30686,14 +30686,14 @@
       <c r="A99" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>440</v>
+      <c r="B99" t="s">
+        <v>344</v>
       </c>
       <c r="C99" t="s">
         <v>372</v>
       </c>
-      <c r="D99" t="s">
-        <v>344</v>
+      <c r="D99" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="E99">
         <v>374</v>
@@ -30715,14 +30715,14 @@
       <c r="A100" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>356</v>
+      <c r="B100" t="s">
+        <v>346</v>
       </c>
       <c r="C100" t="s">
         <v>356</v>
       </c>
-      <c r="D100" t="s">
-        <v>346</v>
+      <c r="D100" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="E100">
         <v>453</v>
@@ -30744,14 +30744,14 @@
       <c r="A101" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>441</v>
+      <c r="B101" t="s">
+        <v>350</v>
       </c>
       <c r="C101" t="s">
         <v>362</v>
       </c>
-      <c r="D101" t="s">
-        <v>350</v>
+      <c r="D101" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="E101">
         <v>299</v>
@@ -30773,14 +30773,14 @@
       <c r="A102" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>442</v>
+      <c r="B102" t="s">
+        <v>350</v>
       </c>
       <c r="C102" t="s">
         <v>362</v>
       </c>
-      <c r="D102" t="s">
-        <v>350</v>
+      <c r="D102" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="E102">
         <v>391</v>
@@ -30802,14 +30802,14 @@
       <c r="A103" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>443</v>
+      <c r="B103" t="s">
+        <v>344</v>
       </c>
       <c r="C103" t="s">
         <v>359</v>
       </c>
-      <c r="D103" t="s">
-        <v>344</v>
+      <c r="D103" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="E103">
         <v>606</v>
@@ -30831,14 +30831,14 @@
       <c r="A104" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>444</v>
+      <c r="B104" t="s">
+        <v>346</v>
       </c>
       <c r="C104" t="s">
         <v>387</v>
       </c>
-      <c r="D104" t="s">
-        <v>346</v>
+      <c r="D104" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E104">
         <v>173</v>
@@ -30860,14 +30860,14 @@
       <c r="A105" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>445</v>
+      <c r="B105" t="s">
+        <v>348</v>
       </c>
       <c r="C105" t="s">
         <v>446</v>
       </c>
-      <c r="D105" t="s">
-        <v>348</v>
+      <c r="D105" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="E105">
         <v>149</v>
@@ -30889,14 +30889,14 @@
       <c r="A106" t="s">
         <v>125</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>447</v>
+      <c r="B106" t="s">
+        <v>346</v>
       </c>
       <c r="C106" t="s">
         <v>448</v>
       </c>
-      <c r="D106" t="s">
-        <v>346</v>
+      <c r="D106" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="E106">
         <v>731</v>
@@ -30918,14 +30918,14 @@
       <c r="A107" t="s">
         <v>126</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>449</v>
+      <c r="B107" t="s">
+        <v>348</v>
       </c>
       <c r="C107" t="s">
         <v>364</v>
       </c>
-      <c r="D107" t="s">
-        <v>348</v>
+      <c r="D107" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="E107">
         <v>216</v>
@@ -30947,14 +30947,14 @@
       <c r="A108" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>450</v>
+      <c r="B108" t="s">
+        <v>348</v>
       </c>
       <c r="C108" t="s">
         <v>357</v>
       </c>
-      <c r="D108" t="s">
-        <v>348</v>
+      <c r="D108" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="E108">
         <v>725</v>
@@ -30976,14 +30976,14 @@
       <c r="A109" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>451</v>
+      <c r="B109" t="s">
+        <v>348</v>
       </c>
       <c r="C109" t="s">
         <v>357</v>
       </c>
-      <c r="D109" t="s">
-        <v>348</v>
+      <c r="D109" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="E109">
         <v>402</v>
@@ -31005,14 +31005,14 @@
       <c r="A110" t="s">
         <v>129</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>452</v>
+      <c r="B110" t="s">
+        <v>344</v>
       </c>
       <c r="C110" t="s">
         <v>343</v>
       </c>
-      <c r="D110" t="s">
-        <v>344</v>
+      <c r="D110" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="E110">
         <v>621</v>
@@ -31034,14 +31034,14 @@
       <c r="A111" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>453</v>
+      <c r="B111" t="s">
+        <v>348</v>
       </c>
       <c r="C111" t="s">
         <v>364</v>
       </c>
-      <c r="D111" t="s">
-        <v>348</v>
+      <c r="D111" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="E111">
         <v>456</v>
@@ -31063,14 +31063,14 @@
       <c r="A112" t="s">
         <v>131</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>454</v>
+      <c r="B112" t="s">
+        <v>346</v>
       </c>
       <c r="C112" t="s">
         <v>346</v>
       </c>
-      <c r="D112" t="s">
-        <v>346</v>
+      <c r="D112" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="E112">
         <v>493</v>
@@ -31092,14 +31092,14 @@
       <c r="A113" t="s">
         <v>132</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>455</v>
+      <c r="B113" t="s">
+        <v>346</v>
       </c>
       <c r="C113" t="s">
         <v>346</v>
       </c>
-      <c r="D113" t="s">
-        <v>346</v>
+      <c r="D113" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="E113">
         <v>216</v>
@@ -31121,14 +31121,14 @@
       <c r="A114" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>456</v>
+      <c r="B114" t="s">
+        <v>344</v>
       </c>
       <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="D114" t="s">
-        <v>344</v>
+      <c r="D114" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="E114">
         <v>487</v>
@@ -31150,14 +31150,14 @@
       <c r="A115" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>457</v>
+      <c r="B115" t="s">
+        <v>352</v>
       </c>
       <c r="C115" t="s">
         <v>351</v>
       </c>
-      <c r="D115" t="s">
-        <v>352</v>
+      <c r="D115" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="E115">
         <v>429</v>
@@ -31179,14 +31179,14 @@
       <c r="A116" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>358</v>
+      <c r="B116" t="s">
+        <v>350</v>
       </c>
       <c r="C116" t="s">
         <v>358</v>
       </c>
-      <c r="D116" t="s">
-        <v>350</v>
+      <c r="D116" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="E116">
         <v>3015</v>
@@ -31208,14 +31208,14 @@
       <c r="A117" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>458</v>
+      <c r="B117" t="s">
+        <v>350</v>
       </c>
       <c r="C117" t="s">
         <v>350</v>
       </c>
-      <c r="D117" t="s">
-        <v>350</v>
+      <c r="D117" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="E117">
         <v>422</v>
@@ -31237,14 +31237,14 @@
       <c r="A118" t="s">
         <v>137</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>359</v>
+      <c r="B118" t="s">
+        <v>344</v>
       </c>
       <c r="C118" t="s">
         <v>359</v>
       </c>
-      <c r="D118" t="s">
-        <v>344</v>
+      <c r="D118" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="E118">
         <v>2114</v>
@@ -31266,14 +31266,14 @@
       <c r="A119" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>459</v>
+      <c r="B119" t="s">
+        <v>344</v>
       </c>
       <c r="C119" t="s">
         <v>359</v>
       </c>
-      <c r="D119" t="s">
-        <v>344</v>
+      <c r="D119" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="E119">
         <v>442</v>
@@ -31295,14 +31295,14 @@
       <c r="A120" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>460</v>
+      <c r="B120" t="s">
+        <v>350</v>
       </c>
       <c r="C120" t="s">
         <v>377</v>
       </c>
-      <c r="D120" t="s">
-        <v>350</v>
+      <c r="D120" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="E120">
         <v>1597</v>
@@ -31324,14 +31324,14 @@
       <c r="A121" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>461</v>
+      <c r="B121" t="s">
+        <v>350</v>
       </c>
       <c r="C121" t="s">
         <v>363</v>
       </c>
-      <c r="D121" t="s">
-        <v>350</v>
+      <c r="D121" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="E121">
         <v>219</v>
@@ -31353,14 +31353,14 @@
       <c r="A122" t="s">
         <v>141</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>462</v>
+      <c r="B122" t="s">
+        <v>348</v>
       </c>
       <c r="C122" t="s">
         <v>357</v>
       </c>
-      <c r="D122" t="s">
-        <v>348</v>
+      <c r="D122" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="E122">
         <v>334</v>
@@ -31382,14 +31382,14 @@
       <c r="A123" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>463</v>
+      <c r="B123" t="s">
+        <v>348</v>
       </c>
       <c r="C123" t="s">
         <v>357</v>
       </c>
-      <c r="D123" t="s">
-        <v>348</v>
+      <c r="D123" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="E123">
         <v>300</v>
@@ -31411,14 +31411,14 @@
       <c r="A124" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>464</v>
+      <c r="B124" t="s">
+        <v>348</v>
       </c>
       <c r="C124" t="s">
         <v>386</v>
       </c>
-      <c r="D124" t="s">
-        <v>348</v>
+      <c r="D124" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="E124">
         <v>740</v>
@@ -31440,14 +31440,14 @@
       <c r="A125" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>465</v>
+      <c r="B125" t="s">
+        <v>348</v>
       </c>
       <c r="C125" t="s">
         <v>386</v>
       </c>
-      <c r="D125" t="s">
-        <v>348</v>
+      <c r="D125" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="E125">
         <v>405</v>
@@ -31469,14 +31469,14 @@
       <c r="A126" t="s">
         <v>145</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>466</v>
+      <c r="B126" t="s">
+        <v>348</v>
       </c>
       <c r="C126" t="s">
         <v>367</v>
       </c>
-      <c r="D126" t="s">
-        <v>348</v>
+      <c r="D126" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="E126">
         <v>481</v>
@@ -31498,14 +31498,14 @@
       <c r="A127" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>360</v>
+      <c r="B127" t="s">
+        <v>346</v>
       </c>
       <c r="C127" t="s">
         <v>346</v>
       </c>
-      <c r="D127" t="s">
-        <v>346</v>
+      <c r="D127" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="E127">
         <v>831</v>
@@ -31527,14 +31527,14 @@
       <c r="A128" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>467</v>
+      <c r="B128" t="s">
+        <v>348</v>
       </c>
       <c r="C128" t="s">
         <v>386</v>
       </c>
-      <c r="D128" t="s">
-        <v>348</v>
+      <c r="D128" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="E128">
         <v>571</v>
@@ -31556,14 +31556,14 @@
       <c r="A129" t="s">
         <v>148</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>468</v>
+      <c r="B129" t="s">
+        <v>346</v>
       </c>
       <c r="C129" t="s">
         <v>469</v>
       </c>
-      <c r="D129" t="s">
-        <v>346</v>
+      <c r="D129" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="E129">
         <v>988</v>
@@ -31585,14 +31585,14 @@
       <c r="A130" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>470</v>
+      <c r="B130" t="s">
+        <v>350</v>
       </c>
       <c r="C130" t="s">
         <v>376</v>
       </c>
-      <c r="D130" t="s">
-        <v>350</v>
+      <c r="D130" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="E130">
         <v>722</v>
@@ -31614,14 +31614,14 @@
       <c r="A131" t="s">
         <v>150</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>361</v>
+      <c r="B131" t="s">
+        <v>348</v>
       </c>
       <c r="C131" t="s">
         <v>361</v>
       </c>
-      <c r="D131" t="s">
-        <v>348</v>
+      <c r="D131" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="E131">
         <v>1394</v>
@@ -31643,14 +31643,14 @@
       <c r="A132" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>471</v>
+      <c r="B132" t="s">
+        <v>350</v>
       </c>
       <c r="C132" t="s">
         <v>349</v>
       </c>
-      <c r="D132" t="s">
-        <v>350</v>
+      <c r="D132" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="E132">
         <v>511</v>
@@ -31672,14 +31672,14 @@
       <c r="A133" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>472</v>
+      <c r="B133" t="s">
+        <v>352</v>
       </c>
       <c r="C133" t="s">
         <v>351</v>
       </c>
-      <c r="D133" t="s">
-        <v>352</v>
+      <c r="D133" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="E133">
         <v>683</v>
@@ -31701,14 +31701,14 @@
       <c r="A134" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>473</v>
+      <c r="B134" t="s">
+        <v>352</v>
       </c>
       <c r="C134" t="s">
         <v>351</v>
       </c>
-      <c r="D134" t="s">
-        <v>352</v>
+      <c r="D134" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="E134">
         <v>657</v>
@@ -31730,14 +31730,14 @@
       <c r="A135" t="s">
         <v>154</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>474</v>
+      <c r="B135" t="s">
+        <v>350</v>
       </c>
       <c r="C135" t="s">
         <v>362</v>
       </c>
-      <c r="D135" t="s">
-        <v>350</v>
+      <c r="D135" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="E135">
         <v>160</v>
@@ -31759,14 +31759,14 @@
       <c r="A136" t="s">
         <v>155</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>475</v>
+      <c r="B136" t="s">
+        <v>352</v>
       </c>
       <c r="C136" t="s">
         <v>476</v>
       </c>
-      <c r="D136" t="s">
-        <v>352</v>
+      <c r="D136" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="E136">
         <v>540</v>
@@ -31788,14 +31788,14 @@
       <c r="A137" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>477</v>
+      <c r="B137" t="s">
+        <v>352</v>
       </c>
       <c r="C137" t="s">
         <v>351</v>
       </c>
-      <c r="D137" t="s">
-        <v>352</v>
+      <c r="D137" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="E137">
         <v>388</v>
@@ -31817,14 +31817,14 @@
       <c r="A138" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>478</v>
+      <c r="B138" t="s">
+        <v>352</v>
       </c>
       <c r="C138" t="s">
         <v>351</v>
       </c>
-      <c r="D138" t="s">
-        <v>352</v>
+      <c r="D138" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="E138">
         <v>1637</v>
@@ -31846,14 +31846,14 @@
       <c r="A139" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>479</v>
+      <c r="B139" t="s">
+        <v>352</v>
       </c>
       <c r="C139" t="s">
         <v>351</v>
       </c>
-      <c r="D139" t="s">
-        <v>352</v>
+      <c r="D139" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="E139">
         <v>424</v>
@@ -31875,14 +31875,14 @@
       <c r="A140" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>480</v>
+      <c r="B140" t="s">
+        <v>348</v>
       </c>
       <c r="C140" t="s">
         <v>386</v>
       </c>
-      <c r="D140" t="s">
-        <v>348</v>
+      <c r="D140" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="E140">
         <v>573</v>
@@ -31904,14 +31904,14 @@
       <c r="A141" t="s">
         <v>160</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>481</v>
+      <c r="B141" t="s">
+        <v>350</v>
       </c>
       <c r="C141" t="s">
         <v>384</v>
       </c>
-      <c r="D141" t="s">
-        <v>350</v>
+      <c r="D141" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="E141">
         <v>446</v>
@@ -31933,14 +31933,14 @@
       <c r="A142" t="s">
         <v>161</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>482</v>
+      <c r="B142" t="s">
+        <v>350</v>
       </c>
       <c r="C142" t="s">
         <v>384</v>
       </c>
-      <c r="D142" t="s">
-        <v>350</v>
+      <c r="D142" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="E142">
         <v>731</v>
@@ -31962,14 +31962,14 @@
       <c r="A143" t="s">
         <v>162</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>483</v>
+      <c r="B143" t="s">
+        <v>350</v>
       </c>
       <c r="C143" t="s">
         <v>384</v>
       </c>
-      <c r="D143" t="s">
-        <v>350</v>
+      <c r="D143" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="E143">
         <v>415</v>
@@ -31991,14 +31991,14 @@
       <c r="A144" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>484</v>
+      <c r="B144" t="s">
+        <v>346</v>
       </c>
       <c r="C144" t="s">
         <v>387</v>
       </c>
-      <c r="D144" t="s">
-        <v>346</v>
+      <c r="D144" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="E144">
         <v>486</v>
@@ -32020,14 +32020,14 @@
       <c r="A145" t="s">
         <v>164</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>485</v>
+      <c r="B145" t="s">
+        <v>350</v>
       </c>
       <c r="C145" t="s">
         <v>362</v>
       </c>
-      <c r="D145" t="s">
-        <v>350</v>
+      <c r="D145" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="E145">
         <v>227</v>
@@ -32049,14 +32049,14 @@
       <c r="A146" t="s">
         <v>165</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>486</v>
+      <c r="B146" t="s">
+        <v>350</v>
       </c>
       <c r="C146" t="s">
         <v>358</v>
       </c>
-      <c r="D146" t="s">
-        <v>350</v>
+      <c r="D146" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="E146">
         <v>378</v>
@@ -32078,14 +32078,14 @@
       <c r="A147" t="s">
         <v>166</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>487</v>
+      <c r="B147" t="s">
+        <v>344</v>
       </c>
       <c r="C147" t="s">
         <v>378</v>
       </c>
-      <c r="D147" t="s">
-        <v>344</v>
+      <c r="D147" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="E147">
         <v>955</v>
@@ -32107,14 +32107,14 @@
       <c r="A148" t="s">
         <v>167</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>488</v>
+      <c r="B148" t="s">
+        <v>350</v>
       </c>
       <c r="C148" t="s">
         <v>489</v>
       </c>
-      <c r="D148" t="s">
-        <v>350</v>
+      <c r="D148" s="6" t="s">
+        <v>488</v>
       </c>
       <c r="E148">
         <v>460</v>
@@ -32136,14 +32136,14 @@
       <c r="A149" t="s">
         <v>168</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>490</v>
+      <c r="B149" t="s">
+        <v>350</v>
       </c>
       <c r="C149" t="s">
         <v>377</v>
       </c>
-      <c r="D149" t="s">
-        <v>350</v>
+      <c r="D149" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="E149">
         <v>1189</v>
@@ -32165,14 +32165,14 @@
       <c r="A150" t="s">
         <v>169</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>491</v>
+      <c r="B150" t="s">
+        <v>350</v>
       </c>
       <c r="C150" t="s">
         <v>363</v>
       </c>
-      <c r="D150" t="s">
-        <v>350</v>
+      <c r="D150" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="E150">
         <v>1439</v>
@@ -32194,14 +32194,14 @@
       <c r="A151" t="s">
         <v>170</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>492</v>
+      <c r="B151" t="s">
+        <v>350</v>
       </c>
       <c r="C151" t="s">
         <v>363</v>
       </c>
-      <c r="D151" t="s">
-        <v>350</v>
+      <c r="D151" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="E151">
         <v>490</v>
@@ -32223,14 +32223,14 @@
       <c r="A152" t="s">
         <v>171</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>493</v>
+      <c r="B152" t="s">
+        <v>350</v>
       </c>
       <c r="C152" t="s">
         <v>389</v>
       </c>
-      <c r="D152" t="s">
-        <v>350</v>
+      <c r="D152" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="E152">
         <v>701</v>
@@ -32252,14 +32252,14 @@
       <c r="A153" t="s">
         <v>172</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>494</v>
+      <c r="B153" t="s">
+        <v>352</v>
       </c>
       <c r="C153" t="s">
         <v>368</v>
       </c>
-      <c r="D153" t="s">
-        <v>352</v>
+      <c r="D153" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="E153">
         <v>2068</v>
@@ -32281,14 +32281,14 @@
       <c r="A154" t="s">
         <v>173</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>364</v>
+      <c r="B154" t="s">
+        <v>348</v>
       </c>
       <c r="C154" t="s">
         <v>364</v>
       </c>
-      <c r="D154" t="s">
-        <v>348</v>
+      <c r="D154" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="E154">
         <v>1018</v>
@@ -32310,14 +32310,14 @@
       <c r="A155" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>495</v>
+      <c r="B155" t="s">
+        <v>346</v>
       </c>
       <c r="C155" t="s">
         <v>387</v>
       </c>
-      <c r="D155" t="s">
-        <v>346</v>
+      <c r="D155" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="E155">
         <v>264</v>
@@ -32339,14 +32339,14 @@
       <c r="A156" t="s">
         <v>175</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>496</v>
+      <c r="B156" t="s">
+        <v>346</v>
       </c>
       <c r="C156" t="s">
         <v>387</v>
       </c>
-      <c r="D156" t="s">
-        <v>346</v>
+      <c r="D156" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="E156">
         <v>555</v>
@@ -32368,14 +32368,14 @@
       <c r="A157" t="s">
         <v>176</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>497</v>
+      <c r="B157" t="s">
+        <v>346</v>
       </c>
       <c r="C157" t="s">
         <v>387</v>
       </c>
-      <c r="D157" t="s">
-        <v>346</v>
+      <c r="D157" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="E157">
         <v>324</v>
@@ -32397,14 +32397,14 @@
       <c r="A158" t="s">
         <v>177</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>498</v>
+      <c r="B158" t="s">
+        <v>350</v>
       </c>
       <c r="C158" t="s">
         <v>389</v>
       </c>
-      <c r="D158" t="s">
-        <v>350</v>
+      <c r="D158" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="E158">
         <v>291</v>
@@ -32426,14 +32426,14 @@
       <c r="A159" t="s">
         <v>178</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>499</v>
+      <c r="B159" t="s">
+        <v>350</v>
       </c>
       <c r="C159" t="s">
         <v>389</v>
       </c>
-      <c r="D159" t="s">
-        <v>350</v>
+      <c r="D159" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="E159">
         <v>571</v>
@@ -32455,14 +32455,14 @@
       <c r="A160" t="s">
         <v>179</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>500</v>
+      <c r="B160" t="s">
+        <v>348</v>
       </c>
       <c r="C160" t="s">
         <v>501</v>
       </c>
-      <c r="D160" t="s">
-        <v>348</v>
+      <c r="D160" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="E160">
         <v>641</v>
@@ -32484,14 +32484,14 @@
       <c r="A161" t="s">
         <v>180</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>502</v>
+      <c r="B161" t="s">
+        <v>346</v>
       </c>
       <c r="C161" t="s">
         <v>387</v>
       </c>
-      <c r="D161" t="s">
-        <v>346</v>
+      <c r="D161" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="E161">
         <v>236</v>
@@ -32513,14 +32513,14 @@
       <c r="A162" t="s">
         <v>181</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>503</v>
+      <c r="B162" t="s">
+        <v>342</v>
       </c>
       <c r="C162" t="s">
         <v>342</v>
       </c>
-      <c r="D162" t="s">
-        <v>342</v>
+      <c r="D162" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="E162">
         <v>425</v>
@@ -32542,14 +32542,14 @@
       <c r="A163" t="s">
         <v>182</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>504</v>
+      <c r="B163" t="s">
+        <v>348</v>
       </c>
       <c r="C163" t="s">
         <v>505</v>
       </c>
-      <c r="D163" t="s">
-        <v>348</v>
+      <c r="D163" s="6" t="s">
+        <v>504</v>
       </c>
       <c r="E163">
         <v>281</v>
@@ -32571,14 +32571,14 @@
       <c r="A164" t="s">
         <v>183</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>506</v>
+      <c r="B164" t="s">
+        <v>348</v>
       </c>
       <c r="C164" t="s">
         <v>505</v>
       </c>
-      <c r="D164" t="s">
-        <v>348</v>
+      <c r="D164" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="E164">
         <v>535</v>
@@ -32600,14 +32600,14 @@
       <c r="A165" t="s">
         <v>184</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>507</v>
+      <c r="B165" t="s">
+        <v>352</v>
       </c>
       <c r="C165" t="s">
         <v>351</v>
       </c>
-      <c r="D165" t="s">
-        <v>352</v>
+      <c r="D165" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="E165">
         <v>180</v>
@@ -32629,14 +32629,14 @@
       <c r="A166" t="s">
         <v>185</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>508</v>
+      <c r="B166" t="s">
+        <v>352</v>
       </c>
       <c r="C166" t="s">
         <v>351</v>
       </c>
-      <c r="D166" t="s">
-        <v>352</v>
+      <c r="D166" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="E166">
         <v>602</v>
@@ -32658,14 +32658,14 @@
       <c r="A167" t="s">
         <v>186</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>509</v>
+      <c r="B167" t="s">
+        <v>352</v>
       </c>
       <c r="C167" t="s">
         <v>365</v>
       </c>
-      <c r="D167" t="s">
-        <v>352</v>
+      <c r="D167" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="E167">
         <v>852</v>
@@ -32687,14 +32687,14 @@
       <c r="A168" t="s">
         <v>187</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>510</v>
+      <c r="B168" t="s">
+        <v>352</v>
       </c>
       <c r="C168" t="s">
         <v>365</v>
       </c>
-      <c r="D168" t="s">
-        <v>352</v>
+      <c r="D168" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="E168">
         <v>530</v>
@@ -32716,14 +32716,14 @@
       <c r="A169" t="s">
         <v>188</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>511</v>
+      <c r="B169" t="s">
+        <v>348</v>
       </c>
       <c r="C169" t="s">
         <v>367</v>
       </c>
-      <c r="D169" t="s">
-        <v>348</v>
+      <c r="D169" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="E169">
         <v>361</v>
@@ -32745,14 +32745,14 @@
       <c r="A170" t="s">
         <v>189</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>366</v>
+      <c r="B170" t="s">
+        <v>346</v>
       </c>
       <c r="C170" t="s">
         <v>366</v>
       </c>
-      <c r="D170" t="s">
-        <v>346</v>
+      <c r="D170" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="E170">
         <v>270</v>
@@ -32774,14 +32774,14 @@
       <c r="A171" t="s">
         <v>190</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>512</v>
+      <c r="B171" t="s">
+        <v>348</v>
       </c>
       <c r="C171" t="s">
         <v>367</v>
       </c>
-      <c r="D171" t="s">
-        <v>348</v>
+      <c r="D171" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="E171">
         <v>737</v>
@@ -32803,14 +32803,14 @@
       <c r="A172" t="s">
         <v>191</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>513</v>
+      <c r="B172" t="s">
+        <v>348</v>
       </c>
       <c r="C172" t="s">
         <v>367</v>
       </c>
-      <c r="D172" t="s">
-        <v>348</v>
+      <c r="D172" s="6" t="s">
+        <v>513</v>
       </c>
       <c r="E172">
         <v>783</v>
@@ -32832,14 +32832,14 @@
       <c r="A173" t="s">
         <v>192</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>514</v>
+      <c r="B173" t="s">
+        <v>346</v>
       </c>
       <c r="C173" t="s">
         <v>346</v>
       </c>
-      <c r="D173" t="s">
-        <v>346</v>
+      <c r="D173" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="E173">
         <v>2995</v>
@@ -32861,14 +32861,14 @@
       <c r="A174" t="s">
         <v>193</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>515</v>
+      <c r="B174" t="s">
+        <v>344</v>
       </c>
       <c r="C174" t="s">
         <v>422</v>
       </c>
-      <c r="D174" t="s">
-        <v>344</v>
+      <c r="D174" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="E174">
         <v>1343</v>
@@ -32890,14 +32890,14 @@
       <c r="A175" t="s">
         <v>194</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>368</v>
+      <c r="B175" t="s">
+        <v>352</v>
       </c>
       <c r="C175" t="s">
         <v>368</v>
       </c>
-      <c r="D175" t="s">
-        <v>352</v>
+      <c r="D175" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="E175">
         <v>676</v>
@@ -32919,14 +32919,14 @@
       <c r="A176" t="s">
         <v>195</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>516</v>
+      <c r="B176" t="s">
+        <v>348</v>
       </c>
       <c r="C176" t="s">
         <v>517</v>
       </c>
-      <c r="D176" t="s">
-        <v>348</v>
+      <c r="D176" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E176">
         <v>685</v>
@@ -32948,14 +32948,14 @@
       <c r="A177" t="s">
         <v>196</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>518</v>
+      <c r="B177" t="s">
+        <v>348</v>
       </c>
       <c r="C177" t="s">
         <v>517</v>
       </c>
-      <c r="D177" t="s">
-        <v>348</v>
+      <c r="D177" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="E177">
         <v>1540</v>
@@ -32977,14 +32977,14 @@
       <c r="A178" t="s">
         <v>197</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>519</v>
+      <c r="B178" t="s">
+        <v>344</v>
       </c>
       <c r="C178" t="s">
         <v>369</v>
       </c>
-      <c r="D178" t="s">
-        <v>344</v>
+      <c r="D178" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="E178">
         <v>1033</v>
@@ -33006,14 +33006,14 @@
       <c r="A179" t="s">
         <v>198</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>520</v>
+      <c r="B179" t="s">
+        <v>344</v>
       </c>
       <c r="C179" t="s">
         <v>369</v>
       </c>
-      <c r="D179" t="s">
-        <v>344</v>
+      <c r="D179" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="E179">
         <v>464</v>
@@ -33035,14 +33035,14 @@
       <c r="A180" t="s">
         <v>199</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>521</v>
+      <c r="B180" t="s">
+        <v>344</v>
       </c>
       <c r="C180" t="s">
         <v>369</v>
       </c>
-      <c r="D180" t="s">
-        <v>344</v>
+      <c r="D180" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="E180">
         <v>1529</v>
@@ -33064,14 +33064,14 @@
       <c r="A181" t="s">
         <v>200</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>522</v>
+      <c r="B181" t="s">
+        <v>352</v>
       </c>
       <c r="C181" t="s">
         <v>351</v>
       </c>
-      <c r="D181" t="s">
-        <v>352</v>
+      <c r="D181" s="6" t="s">
+        <v>522</v>
       </c>
       <c r="E181">
         <v>648</v>
@@ -33093,14 +33093,14 @@
       <c r="A182" t="s">
         <v>201</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>523</v>
+      <c r="B182" t="s">
+        <v>350</v>
       </c>
       <c r="C182" t="s">
         <v>358</v>
       </c>
-      <c r="D182" t="s">
-        <v>350</v>
+      <c r="D182" s="6" t="s">
+        <v>523</v>
       </c>
       <c r="E182">
         <v>486</v>
@@ -33122,14 +33122,14 @@
       <c r="A183" t="s">
         <v>202</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>524</v>
+      <c r="B183" t="s">
+        <v>350</v>
       </c>
       <c r="C183" t="s">
         <v>384</v>
       </c>
-      <c r="D183" t="s">
-        <v>350</v>
+      <c r="D183" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="E183">
         <v>289</v>
@@ -33151,14 +33151,14 @@
       <c r="A184" t="s">
         <v>203</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>525</v>
+      <c r="B184" t="s">
+        <v>350</v>
       </c>
       <c r="C184" t="s">
         <v>384</v>
       </c>
-      <c r="D184" t="s">
-        <v>350</v>
+      <c r="D184" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="E184">
         <v>682</v>
@@ -33180,14 +33180,14 @@
       <c r="A185" t="s">
         <v>204</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>526</v>
+      <c r="B185" t="s">
+        <v>346</v>
       </c>
       <c r="C185" t="s">
         <v>346</v>
       </c>
-      <c r="D185" t="s">
-        <v>346</v>
+      <c r="D185" s="6" t="s">
+        <v>526</v>
       </c>
       <c r="E185">
         <v>214</v>
@@ -33209,14 +33209,14 @@
       <c r="A186" t="s">
         <v>205</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>527</v>
+      <c r="B186" t="s">
+        <v>352</v>
       </c>
       <c r="C186" t="s">
         <v>351</v>
       </c>
-      <c r="D186" t="s">
-        <v>352</v>
+      <c r="D186" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="E186">
         <v>700</v>
@@ -33238,14 +33238,14 @@
       <c r="A187" t="s">
         <v>206</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>528</v>
+      <c r="B187" t="s">
+        <v>350</v>
       </c>
       <c r="C187" t="s">
         <v>349</v>
       </c>
-      <c r="D187" t="s">
-        <v>350</v>
+      <c r="D187" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="E187">
         <v>788</v>
@@ -33267,14 +33267,14 @@
       <c r="A188" t="s">
         <v>207</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>529</v>
+      <c r="B188" t="s">
+        <v>350</v>
       </c>
       <c r="C188" t="s">
         <v>349</v>
       </c>
-      <c r="D188" t="s">
-        <v>350</v>
+      <c r="D188" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="E188">
         <v>729</v>
@@ -33296,14 +33296,14 @@
       <c r="A189" t="s">
         <v>208</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>530</v>
+      <c r="B189" t="s">
+        <v>344</v>
       </c>
       <c r="C189" t="s">
         <v>343</v>
       </c>
-      <c r="D189" t="s">
-        <v>344</v>
+      <c r="D189" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="E189">
         <v>612</v>
@@ -33325,14 +33325,14 @@
       <c r="A190" t="s">
         <v>209</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>370</v>
+      <c r="B190" t="s">
+        <v>344</v>
       </c>
       <c r="C190" t="s">
         <v>370</v>
       </c>
-      <c r="D190" t="s">
-        <v>344</v>
+      <c r="D190" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="E190">
         <v>642</v>
@@ -33354,14 +33354,14 @@
       <c r="A191" t="s">
         <v>210</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>531</v>
+      <c r="B191" t="s">
+        <v>344</v>
       </c>
       <c r="C191" t="s">
         <v>532</v>
       </c>
-      <c r="D191" t="s">
-        <v>344</v>
+      <c r="D191" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="E191">
         <v>451</v>
@@ -33383,14 +33383,14 @@
       <c r="A192" t="s">
         <v>211</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>533</v>
+      <c r="B192" t="s">
+        <v>344</v>
       </c>
       <c r="C192" t="s">
         <v>532</v>
       </c>
-      <c r="D192" t="s">
-        <v>344</v>
+      <c r="D192" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="E192">
         <v>466</v>
@@ -33412,14 +33412,14 @@
       <c r="A193" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>371</v>
+      <c r="B193" t="s">
+        <v>350</v>
       </c>
       <c r="C193" t="s">
         <v>371</v>
       </c>
-      <c r="D193" t="s">
-        <v>350</v>
+      <c r="D193" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="E193">
         <v>453</v>
@@ -33441,14 +33441,14 @@
       <c r="A194" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>534</v>
+      <c r="B194" t="s">
+        <v>348</v>
       </c>
       <c r="C194" t="s">
         <v>446</v>
       </c>
-      <c r="D194" t="s">
-        <v>348</v>
+      <c r="D194" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="E194">
         <v>700</v>
@@ -33470,14 +33470,14 @@
       <c r="A195" t="s">
         <v>214</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>535</v>
+      <c r="B195" t="s">
+        <v>344</v>
       </c>
       <c r="C195" t="s">
         <v>359</v>
       </c>
-      <c r="D195" t="s">
-        <v>344</v>
+      <c r="D195" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="E195">
         <v>725</v>
@@ -33499,14 +33499,14 @@
       <c r="A196" t="s">
         <v>215</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>536</v>
+      <c r="B196" t="s">
+        <v>350</v>
       </c>
       <c r="C196" t="s">
         <v>536</v>
       </c>
-      <c r="D196" t="s">
-        <v>350</v>
+      <c r="D196" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="E196">
         <v>3231</v>
@@ -33528,14 +33528,14 @@
       <c r="A197" t="s">
         <v>216</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>537</v>
+      <c r="B197" t="s">
+        <v>350</v>
       </c>
       <c r="C197" t="s">
         <v>536</v>
       </c>
-      <c r="D197" t="s">
-        <v>350</v>
+      <c r="D197" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="E197">
         <v>827</v>
@@ -33557,14 +33557,14 @@
       <c r="A198" t="s">
         <v>217</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>538</v>
+      <c r="B198" t="s">
+        <v>350</v>
       </c>
       <c r="C198" t="s">
         <v>371</v>
       </c>
-      <c r="D198" t="s">
-        <v>350</v>
+      <c r="D198" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="E198">
         <v>382</v>
@@ -33586,14 +33586,14 @@
       <c r="A199" t="s">
         <v>218</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>539</v>
+      <c r="B199" t="s">
+        <v>352</v>
       </c>
       <c r="C199" t="s">
         <v>539</v>
       </c>
-      <c r="D199" t="s">
-        <v>352</v>
+      <c r="D199" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="E199">
         <v>532</v>
@@ -33615,14 +33615,14 @@
       <c r="A200" t="s">
         <v>219</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>540</v>
+      <c r="B200" t="s">
+        <v>350</v>
       </c>
       <c r="C200" t="s">
         <v>371</v>
       </c>
-      <c r="D200" t="s">
-        <v>350</v>
+      <c r="D200" s="6" t="s">
+        <v>540</v>
       </c>
       <c r="E200">
         <v>724</v>
@@ -33644,14 +33644,14 @@
       <c r="A201" t="s">
         <v>220</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>373</v>
+      <c r="B201" t="s">
+        <v>346</v>
       </c>
       <c r="C201" t="s">
         <v>373</v>
       </c>
-      <c r="D201" t="s">
-        <v>346</v>
+      <c r="D201" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="E201">
         <v>900</v>
@@ -33673,14 +33673,14 @@
       <c r="A202" t="s">
         <v>221</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>541</v>
+      <c r="B202" t="s">
+        <v>346</v>
       </c>
       <c r="C202" t="s">
         <v>373</v>
       </c>
-      <c r="D202" t="s">
-        <v>346</v>
+      <c r="D202" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="E202">
         <v>825</v>
@@ -33702,14 +33702,14 @@
       <c r="A203" t="s">
         <v>222</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>542</v>
+      <c r="B203" t="s">
+        <v>346</v>
       </c>
       <c r="C203" t="s">
         <v>373</v>
       </c>
-      <c r="D203" t="s">
-        <v>346</v>
+      <c r="D203" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="E203">
         <v>745</v>
@@ -33731,14 +33731,14 @@
       <c r="A204" t="s">
         <v>223</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>543</v>
+      <c r="B204" t="s">
+        <v>348</v>
       </c>
       <c r="C204" t="s">
         <v>367</v>
       </c>
-      <c r="D204" t="s">
-        <v>348</v>
+      <c r="D204" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="E204">
         <v>258</v>
@@ -33760,14 +33760,14 @@
       <c r="A205" t="s">
         <v>224</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>544</v>
+      <c r="B205" t="s">
+        <v>348</v>
       </c>
       <c r="C205" t="s">
         <v>367</v>
       </c>
-      <c r="D205" t="s">
-        <v>348</v>
+      <c r="D205" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="E205">
         <v>581</v>
@@ -33789,14 +33789,14 @@
       <c r="A206" t="s">
         <v>225</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>545</v>
+      <c r="B206" t="s">
+        <v>348</v>
       </c>
       <c r="C206" t="s">
         <v>375</v>
       </c>
-      <c r="D206" t="s">
-        <v>348</v>
+      <c r="D206" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="E206">
         <v>262</v>
@@ -33818,14 +33818,14 @@
       <c r="A207" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>546</v>
+      <c r="B207" t="s">
+        <v>352</v>
       </c>
       <c r="C207" t="s">
         <v>374</v>
       </c>
-      <c r="D207" t="s">
-        <v>352</v>
+      <c r="D207" s="6" t="s">
+        <v>546</v>
       </c>
       <c r="E207">
         <v>1126</v>
@@ -33847,14 +33847,14 @@
       <c r="A208" t="s">
         <v>227</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>547</v>
+      <c r="B208" t="s">
+        <v>352</v>
       </c>
       <c r="C208" t="s">
         <v>374</v>
       </c>
-      <c r="D208" t="s">
-        <v>352</v>
+      <c r="D208" s="6" t="s">
+        <v>547</v>
       </c>
       <c r="E208">
         <v>516</v>
@@ -33876,14 +33876,14 @@
       <c r="A209" t="s">
         <v>228</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>375</v>
+      <c r="B209" t="s">
+        <v>348</v>
       </c>
       <c r="C209" t="s">
         <v>375</v>
       </c>
-      <c r="D209" t="s">
-        <v>348</v>
+      <c r="D209" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="E209">
         <v>901</v>
@@ -33905,14 +33905,14 @@
       <c r="A210" t="s">
         <v>229</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>548</v>
+      <c r="B210" t="s">
+        <v>348</v>
       </c>
       <c r="C210" t="s">
         <v>375</v>
       </c>
-      <c r="D210" t="s">
-        <v>348</v>
+      <c r="D210" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="E210">
         <v>582</v>
@@ -33934,14 +33934,14 @@
       <c r="A211" t="s">
         <v>230</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>376</v>
+      <c r="B211" t="s">
+        <v>350</v>
       </c>
       <c r="C211" t="s">
         <v>376</v>
       </c>
-      <c r="D211" t="s">
-        <v>350</v>
+      <c r="D211" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="E211">
         <v>424</v>
@@ -33963,14 +33963,14 @@
       <c r="A212" t="s">
         <v>231</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>549</v>
+      <c r="B212" t="s">
+        <v>352</v>
       </c>
       <c r="C212" t="s">
         <v>368</v>
       </c>
-      <c r="D212" t="s">
-        <v>352</v>
+      <c r="D212" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="E212">
         <v>851</v>
@@ -33992,14 +33992,14 @@
       <c r="A213" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>550</v>
+      <c r="B213" t="s">
+        <v>346</v>
       </c>
       <c r="C213" t="s">
         <v>346</v>
       </c>
-      <c r="D213" t="s">
-        <v>346</v>
+      <c r="D213" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="E213">
         <v>382</v>
@@ -34021,14 +34021,14 @@
       <c r="A214" t="s">
         <v>233</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>551</v>
+      <c r="B214" t="s">
+        <v>350</v>
       </c>
       <c r="C214" t="s">
         <v>377</v>
       </c>
-      <c r="D214" t="s">
-        <v>350</v>
+      <c r="D214" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="E214">
         <v>565</v>
@@ -34050,14 +34050,14 @@
       <c r="A215" t="s">
         <v>234</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>377</v>
+      <c r="B215" t="s">
+        <v>350</v>
       </c>
       <c r="C215" t="s">
         <v>377</v>
       </c>
-      <c r="D215" t="s">
-        <v>350</v>
+      <c r="D215" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="E215">
         <v>976</v>
@@ -34079,14 +34079,14 @@
       <c r="A216" t="s">
         <v>235</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>552</v>
+      <c r="B216" t="s">
+        <v>346</v>
       </c>
       <c r="C216" t="s">
         <v>552</v>
       </c>
-      <c r="D216" t="s">
-        <v>346</v>
+      <c r="D216" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="E216">
         <v>1244</v>
@@ -34108,14 +34108,14 @@
       <c r="A217" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>553</v>
+      <c r="B217" t="s">
+        <v>348</v>
       </c>
       <c r="C217" t="s">
         <v>553</v>
       </c>
-      <c r="D217" t="s">
-        <v>348</v>
+      <c r="D217" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="E217">
         <v>1606</v>
@@ -34137,14 +34137,14 @@
       <c r="A218" t="s">
         <v>237</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>554</v>
+      <c r="B218" t="s">
+        <v>346</v>
       </c>
       <c r="C218" t="s">
         <v>554</v>
       </c>
-      <c r="D218" t="s">
-        <v>346</v>
+      <c r="D218" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="E218">
         <v>370</v>
@@ -34166,14 +34166,14 @@
       <c r="A219" t="s">
         <v>238</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>555</v>
+      <c r="B219" t="s">
+        <v>346</v>
       </c>
       <c r="C219" t="s">
         <v>554</v>
       </c>
-      <c r="D219" t="s">
-        <v>346</v>
+      <c r="D219" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="E219">
         <v>607</v>
@@ -34195,14 +34195,14 @@
       <c r="A220" t="s">
         <v>239</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>556</v>
+      <c r="B220" t="s">
+        <v>352</v>
       </c>
       <c r="C220" t="s">
         <v>556</v>
       </c>
-      <c r="D220" t="s">
-        <v>352</v>
+      <c r="D220" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="E220">
         <v>1136</v>
@@ -34224,14 +34224,14 @@
       <c r="A221" t="s">
         <v>240</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>557</v>
+      <c r="B221" t="s">
+        <v>350</v>
       </c>
       <c r="C221" t="s">
         <v>377</v>
       </c>
-      <c r="D221" t="s">
-        <v>350</v>
+      <c r="D221" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="E221">
         <v>666</v>
@@ -34253,14 +34253,14 @@
       <c r="A222" t="s">
         <v>241</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>558</v>
+      <c r="B222" t="s">
+        <v>350</v>
       </c>
       <c r="C222" t="s">
         <v>377</v>
       </c>
-      <c r="D222" t="s">
-        <v>350</v>
+      <c r="D222" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="E222">
         <v>1574</v>
@@ -34282,14 +34282,14 @@
       <c r="A223" t="s">
         <v>242</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>559</v>
+      <c r="B223" t="s">
+        <v>344</v>
       </c>
       <c r="C223" t="s">
         <v>359</v>
       </c>
-      <c r="D223" t="s">
-        <v>344</v>
+      <c r="D223" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="E223">
         <v>884</v>
@@ -34311,14 +34311,14 @@
       <c r="A224" t="s">
         <v>243</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>560</v>
+      <c r="B224" t="s">
+        <v>346</v>
       </c>
       <c r="C224" t="s">
         <v>346</v>
       </c>
-      <c r="D224" t="s">
-        <v>346</v>
+      <c r="D224" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="E224">
         <v>387</v>
@@ -34340,14 +34340,14 @@
       <c r="A225" t="s">
         <v>244</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>561</v>
+      <c r="B225" t="s">
+        <v>350</v>
       </c>
       <c r="C225" t="s">
         <v>561</v>
       </c>
-      <c r="D225" t="s">
-        <v>350</v>
+      <c r="D225" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="E225">
         <v>832</v>
@@ -34369,14 +34369,14 @@
       <c r="A226" t="s">
         <v>245</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>562</v>
+      <c r="B226" t="s">
+        <v>350</v>
       </c>
       <c r="C226" t="s">
         <v>562</v>
       </c>
-      <c r="D226" t="s">
-        <v>350</v>
+      <c r="D226" s="6" t="s">
+        <v>562</v>
       </c>
       <c r="E226">
         <v>403</v>
@@ -34398,14 +34398,14 @@
       <c r="A227" t="s">
         <v>246</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>563</v>
+      <c r="B227" t="s">
+        <v>344</v>
       </c>
       <c r="C227" t="s">
         <v>563</v>
       </c>
-      <c r="D227" t="s">
-        <v>344</v>
+      <c r="D227" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="E227">
         <v>1685</v>
@@ -34427,14 +34427,14 @@
       <c r="A228" t="s">
         <v>247</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>379</v>
+      <c r="B228" t="s">
+        <v>352</v>
       </c>
       <c r="C228" t="s">
         <v>379</v>
       </c>
-      <c r="D228" t="s">
-        <v>352</v>
+      <c r="D228" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="E228">
         <v>1266</v>
@@ -34456,14 +34456,14 @@
       <c r="A229" t="s">
         <v>248</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>380</v>
+      <c r="B229" t="s">
+        <v>350</v>
       </c>
       <c r="C229" t="s">
         <v>380</v>
       </c>
-      <c r="D229" t="s">
-        <v>350</v>
+      <c r="D229" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="E229">
         <v>314</v>
@@ -34485,14 +34485,14 @@
       <c r="A230" t="s">
         <v>249</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>501</v>
+      <c r="B230" t="s">
+        <v>348</v>
       </c>
       <c r="C230" t="s">
         <v>501</v>
       </c>
-      <c r="D230" t="s">
-        <v>348</v>
+      <c r="D230" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="E230">
         <v>416</v>
@@ -34514,14 +34514,14 @@
       <c r="A231" t="s">
         <v>250</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>564</v>
+      <c r="B231" t="s">
+        <v>350</v>
       </c>
       <c r="C231" t="s">
         <v>564</v>
       </c>
-      <c r="D231" t="s">
-        <v>350</v>
+      <c r="D231" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="E231">
         <v>226</v>
@@ -34543,14 +34543,14 @@
       <c r="A232" t="s">
         <v>251</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>565</v>
+      <c r="B232" t="s">
+        <v>348</v>
       </c>
       <c r="C232" t="s">
         <v>375</v>
       </c>
-      <c r="D232" t="s">
-        <v>348</v>
+      <c r="D232" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="E232">
         <v>835</v>
@@ -34572,14 +34572,14 @@
       <c r="A233" t="s">
         <v>252</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>566</v>
+      <c r="B233" t="s">
+        <v>348</v>
       </c>
       <c r="C233" t="s">
         <v>375</v>
       </c>
-      <c r="D233" t="s">
-        <v>348</v>
+      <c r="D233" s="6" t="s">
+        <v>566</v>
       </c>
       <c r="E233">
         <v>418</v>
@@ -34601,14 +34601,14 @@
       <c r="A234" t="s">
         <v>253</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>567</v>
+      <c r="B234" t="s">
+        <v>350</v>
       </c>
       <c r="C234" t="s">
         <v>568</v>
       </c>
-      <c r="D234" t="s">
-        <v>350</v>
+      <c r="D234" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="E234">
         <v>352</v>
@@ -34630,14 +34630,14 @@
       <c r="A235" t="s">
         <v>254</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>569</v>
+      <c r="B235" t="s">
+        <v>350</v>
       </c>
       <c r="C235" t="s">
         <v>568</v>
       </c>
-      <c r="D235" t="s">
-        <v>350</v>
+      <c r="D235" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="E235">
         <v>655</v>
@@ -34659,14 +34659,14 @@
       <c r="A236" t="s">
         <v>255</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>570</v>
+      <c r="B236" t="s">
+        <v>344</v>
       </c>
       <c r="C236" t="s">
         <v>570</v>
       </c>
-      <c r="D236" t="s">
-        <v>344</v>
+      <c r="D236" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="E236">
         <v>477</v>
@@ -34688,14 +34688,14 @@
       <c r="A237" t="s">
         <v>256</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>571</v>
+      <c r="B237" t="s">
+        <v>352</v>
       </c>
       <c r="C237" t="s">
         <v>572</v>
       </c>
-      <c r="D237" t="s">
-        <v>352</v>
+      <c r="D237" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="E237">
         <v>481</v>
@@ -34717,14 +34717,14 @@
       <c r="A238" t="s">
         <v>257</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>573</v>
+      <c r="B238" t="s">
+        <v>344</v>
       </c>
       <c r="C238" t="s">
         <v>378</v>
       </c>
-      <c r="D238" t="s">
-        <v>344</v>
+      <c r="D238" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="E238">
         <v>761</v>
@@ -34746,14 +34746,14 @@
       <c r="A239" t="s">
         <v>258</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>574</v>
+      <c r="B239" t="s">
+        <v>344</v>
       </c>
       <c r="C239" t="s">
         <v>378</v>
       </c>
-      <c r="D239" t="s">
-        <v>344</v>
+      <c r="D239" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="E239">
         <v>986</v>
@@ -34775,14 +34775,14 @@
       <c r="A240" t="s">
         <v>259</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>575</v>
+      <c r="B240" t="s">
+        <v>352</v>
       </c>
       <c r="C240" t="s">
         <v>575</v>
       </c>
-      <c r="D240" t="s">
-        <v>352</v>
+      <c r="D240" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="E240">
         <v>644</v>
@@ -34804,14 +34804,14 @@
       <c r="A241" t="s">
         <v>260</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>576</v>
+      <c r="B241" t="s">
+        <v>344</v>
       </c>
       <c r="C241" t="s">
         <v>576</v>
       </c>
-      <c r="D241" t="s">
-        <v>344</v>
+      <c r="D241" s="6" t="s">
+        <v>576</v>
       </c>
       <c r="E241">
         <v>1553</v>
@@ -34833,14 +34833,14 @@
       <c r="A242" t="s">
         <v>261</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>577</v>
+      <c r="B242" t="s">
+        <v>344</v>
       </c>
       <c r="C242" t="s">
         <v>577</v>
       </c>
-      <c r="D242" t="s">
-        <v>344</v>
+      <c r="D242" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="E242">
         <v>966</v>
@@ -34862,14 +34862,14 @@
       <c r="A243" t="s">
         <v>262</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>578</v>
+      <c r="B243" t="s">
+        <v>344</v>
       </c>
       <c r="C243" t="s">
         <v>578</v>
       </c>
-      <c r="D243" t="s">
-        <v>344</v>
+      <c r="D243" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="E243">
         <v>854</v>
@@ -34891,14 +34891,14 @@
       <c r="A244" t="s">
         <v>263</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>579</v>
+      <c r="B244" t="s">
+        <v>350</v>
       </c>
       <c r="C244" t="s">
         <v>579</v>
       </c>
-      <c r="D244" t="s">
-        <v>350</v>
+      <c r="D244" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="E244">
         <v>985</v>
@@ -34920,14 +34920,14 @@
       <c r="A245" t="s">
         <v>264</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>580</v>
+      <c r="B245" t="s">
+        <v>350</v>
       </c>
       <c r="C245" t="s">
         <v>580</v>
       </c>
-      <c r="D245" t="s">
-        <v>350</v>
+      <c r="D245" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="E245">
         <v>1330</v>
@@ -34949,14 +34949,14 @@
       <c r="A246" t="s">
         <v>265</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>581</v>
+      <c r="B246" t="s">
+        <v>344</v>
       </c>
       <c r="C246" t="s">
         <v>581</v>
       </c>
-      <c r="D246" t="s">
-        <v>344</v>
+      <c r="D246" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="E246">
         <v>821</v>
@@ -34978,14 +34978,14 @@
       <c r="A247" t="s">
         <v>266</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>582</v>
+      <c r="B247" t="s">
+        <v>342</v>
       </c>
       <c r="C247" t="s">
         <v>582</v>
       </c>
-      <c r="D247" t="s">
-        <v>342</v>
+      <c r="D247" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="E247">
         <v>358</v>
@@ -35007,14 +35007,14 @@
       <c r="A248" t="s">
         <v>267</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>583</v>
+      <c r="B248" t="s">
+        <v>342</v>
       </c>
       <c r="C248" t="s">
         <v>583</v>
       </c>
-      <c r="D248" t="s">
-        <v>342</v>
+      <c r="D248" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="E248">
         <v>430</v>
@@ -35036,14 +35036,14 @@
       <c r="A249" t="s">
         <v>268</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>584</v>
+      <c r="B249" t="s">
+        <v>342</v>
       </c>
       <c r="C249" t="s">
         <v>584</v>
       </c>
-      <c r="D249" t="s">
-        <v>342</v>
+      <c r="D249" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="E249">
         <v>318</v>
@@ -35065,14 +35065,14 @@
       <c r="A250" t="s">
         <v>269</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>585</v>
+      <c r="B250" t="s">
+        <v>342</v>
       </c>
       <c r="C250" t="s">
         <v>585</v>
       </c>
-      <c r="D250" t="s">
-        <v>342</v>
+      <c r="D250" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="E250">
         <v>120</v>
@@ -35094,14 +35094,14 @@
       <c r="A251" t="s">
         <v>270</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>586</v>
+      <c r="B251" t="s">
+        <v>342</v>
       </c>
       <c r="C251" t="s">
         <v>586</v>
       </c>
-      <c r="D251" t="s">
-        <v>342</v>
+      <c r="D251" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="E251">
         <v>640</v>
@@ -35123,14 +35123,14 @@
       <c r="A252" t="s">
         <v>271</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>587</v>
+      <c r="B252" t="s">
+        <v>342</v>
       </c>
       <c r="C252" t="s">
         <v>587</v>
       </c>
-      <c r="D252" t="s">
-        <v>342</v>
+      <c r="D252" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="E252">
         <v>230</v>
@@ -35152,14 +35152,14 @@
       <c r="A253" t="s">
         <v>272</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>588</v>
+      <c r="B253" t="s">
+        <v>344</v>
       </c>
       <c r="C253" t="s">
         <v>588</v>
       </c>
-      <c r="D253" t="s">
-        <v>344</v>
+      <c r="D253" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="E253">
         <v>268</v>
@@ -35181,14 +35181,14 @@
       <c r="A254" t="s">
         <v>273</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>381</v>
+      <c r="B254" t="s">
+        <v>344</v>
       </c>
       <c r="C254" t="s">
         <v>381</v>
       </c>
-      <c r="D254" t="s">
-        <v>344</v>
+      <c r="D254" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="E254">
         <v>799</v>
@@ -35210,14 +35210,14 @@
       <c r="A255" t="s">
         <v>274</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>589</v>
+      <c r="B255" t="s">
+        <v>344</v>
       </c>
       <c r="C255" t="s">
         <v>589</v>
       </c>
-      <c r="D255" t="s">
-        <v>344</v>
+      <c r="D255" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="E255">
         <v>1602</v>
@@ -35239,14 +35239,14 @@
       <c r="A256" t="s">
         <v>275</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>590</v>
+      <c r="B256" t="s">
+        <v>350</v>
       </c>
       <c r="C256" t="s">
         <v>590</v>
       </c>
-      <c r="D256" t="s">
-        <v>350</v>
+      <c r="D256" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="E256">
         <v>2315</v>
@@ -35268,14 +35268,14 @@
       <c r="A257" t="s">
         <v>276</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>591</v>
+      <c r="B257" t="s">
+        <v>350</v>
       </c>
       <c r="C257" t="s">
         <v>591</v>
       </c>
-      <c r="D257" t="s">
-        <v>350</v>
+      <c r="D257" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="E257">
         <v>568</v>
@@ -35297,14 +35297,14 @@
       <c r="A258" t="s">
         <v>277</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>592</v>
+      <c r="B258" t="s">
+        <v>350</v>
       </c>
       <c r="C258" t="s">
         <v>350</v>
       </c>
-      <c r="D258" t="s">
-        <v>350</v>
+      <c r="D258" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="E258">
         <v>321</v>
@@ -35326,14 +35326,14 @@
       <c r="A259" t="s">
         <v>278</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>593</v>
+      <c r="B259" t="s">
+        <v>348</v>
       </c>
       <c r="C259" t="s">
         <v>347</v>
       </c>
-      <c r="D259" t="s">
-        <v>348</v>
+      <c r="D259" s="6" t="s">
+        <v>593</v>
       </c>
       <c r="E259">
         <v>933</v>
@@ -35355,14 +35355,14 @@
       <c r="A260" t="s">
         <v>279</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>594</v>
+      <c r="B260" t="s">
+        <v>352</v>
       </c>
       <c r="C260" t="s">
         <v>595</v>
       </c>
-      <c r="D260" t="s">
-        <v>352</v>
+      <c r="D260" s="6" t="s">
+        <v>594</v>
       </c>
       <c r="E260">
         <v>1178</v>
@@ -35384,14 +35384,14 @@
       <c r="A261" t="s">
         <v>280</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>596</v>
+      <c r="B261" t="s">
+        <v>352</v>
       </c>
       <c r="C261" t="s">
         <v>595</v>
       </c>
-      <c r="D261" t="s">
-        <v>352</v>
+      <c r="D261" s="6" t="s">
+        <v>596</v>
       </c>
       <c r="E261">
         <v>1325</v>
@@ -35413,14 +35413,14 @@
       <c r="A262" t="s">
         <v>281</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>597</v>
+      <c r="B262" t="s">
+        <v>344</v>
       </c>
       <c r="C262" t="s">
         <v>597</v>
       </c>
-      <c r="D262" t="s">
-        <v>344</v>
+      <c r="D262" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="E262">
         <v>321</v>
@@ -35442,14 +35442,14 @@
       <c r="A263" t="s">
         <v>282</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>598</v>
+      <c r="B263" t="s">
+        <v>344</v>
       </c>
       <c r="C263" t="s">
         <v>598</v>
       </c>
-      <c r="D263" t="s">
-        <v>344</v>
+      <c r="D263" s="6" t="s">
+        <v>598</v>
       </c>
       <c r="E263">
         <v>212</v>
@@ -35471,14 +35471,14 @@
       <c r="A264" t="s">
         <v>283</v>
       </c>
-      <c r="B264" s="6" t="s">
-        <v>599</v>
+      <c r="B264" t="s">
+        <v>344</v>
       </c>
       <c r="C264" t="s">
         <v>599</v>
       </c>
-      <c r="D264" t="s">
-        <v>344</v>
+      <c r="D264" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="E264">
         <v>580</v>
@@ -35500,14 +35500,14 @@
       <c r="A265" t="s">
         <v>284</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>600</v>
+      <c r="B265" t="s">
+        <v>344</v>
       </c>
       <c r="C265" t="s">
         <v>600</v>
       </c>
-      <c r="D265" t="s">
-        <v>344</v>
+      <c r="D265" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="E265">
         <v>527</v>
@@ -35529,14 +35529,14 @@
       <c r="A266" t="s">
         <v>285</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>601</v>
+      <c r="B266" t="s">
+        <v>344</v>
       </c>
       <c r="C266" t="s">
         <v>601</v>
       </c>
-      <c r="D266" t="s">
-        <v>344</v>
+      <c r="D266" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="E266">
         <v>540</v>
@@ -35558,14 +35558,14 @@
       <c r="A267" t="s">
         <v>286</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>602</v>
+      <c r="B267" t="s">
+        <v>352</v>
       </c>
       <c r="C267" t="s">
         <v>602</v>
       </c>
-      <c r="D267" t="s">
-        <v>352</v>
+      <c r="D267" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="E267">
         <v>65</v>
@@ -35587,14 +35587,14 @@
       <c r="A268" t="s">
         <v>287</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>603</v>
+      <c r="B268" t="s">
+        <v>352</v>
       </c>
       <c r="C268" t="s">
         <v>603</v>
       </c>
-      <c r="D268" t="s">
-        <v>352</v>
+      <c r="D268" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="E268">
         <v>920</v>
@@ -35616,14 +35616,14 @@
       <c r="A269" t="s">
         <v>288</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>604</v>
+      <c r="B269" t="s">
+        <v>350</v>
       </c>
       <c r="C269" t="s">
         <v>604</v>
       </c>
-      <c r="D269" t="s">
-        <v>350</v>
+      <c r="D269" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="E269">
         <v>113</v>
@@ -35645,14 +35645,14 @@
       <c r="A270" t="s">
         <v>289</v>
       </c>
-      <c r="B270" s="6" t="s">
-        <v>605</v>
+      <c r="B270" t="s">
+        <v>348</v>
       </c>
       <c r="C270" t="s">
         <v>605</v>
       </c>
-      <c r="D270" t="s">
-        <v>348</v>
+      <c r="D270" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="E270">
         <v>1025</v>
@@ -35674,14 +35674,14 @@
       <c r="A271" t="s">
         <v>290</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>606</v>
+      <c r="B271" t="s">
+        <v>352</v>
       </c>
       <c r="C271" t="s">
         <v>607</v>
       </c>
-      <c r="D271" t="s">
-        <v>352</v>
+      <c r="D271" s="6" t="s">
+        <v>606</v>
       </c>
       <c r="E271">
         <v>765</v>
@@ -35703,14 +35703,14 @@
       <c r="A272" t="s">
         <v>291</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>608</v>
+      <c r="B272" t="s">
+        <v>352</v>
       </c>
       <c r="C272" t="s">
         <v>607</v>
       </c>
-      <c r="D272" t="s">
-        <v>352</v>
+      <c r="D272" s="6" t="s">
+        <v>608</v>
       </c>
       <c r="E272">
         <v>494</v>
@@ -35732,14 +35732,14 @@
       <c r="A273" t="s">
         <v>292</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>609</v>
+      <c r="B273" t="s">
+        <v>350</v>
       </c>
       <c r="C273" t="s">
         <v>609</v>
       </c>
-      <c r="D273" t="s">
-        <v>350</v>
+      <c r="D273" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="E273">
         <v>270</v>
@@ -35761,14 +35761,14 @@
       <c r="A274" t="s">
         <v>293</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>383</v>
+      <c r="B274" t="s">
+        <v>346</v>
       </c>
       <c r="C274" t="s">
         <v>383</v>
       </c>
-      <c r="D274" t="s">
-        <v>346</v>
+      <c r="D274" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="E274">
         <v>982</v>
@@ -35790,14 +35790,14 @@
       <c r="A275" t="s">
         <v>294</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>610</v>
+      <c r="B275" t="s">
+        <v>346</v>
       </c>
       <c r="C275" t="s">
         <v>610</v>
       </c>
-      <c r="D275" t="s">
-        <v>346</v>
+      <c r="D275" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="E275">
         <v>508</v>
@@ -35819,14 +35819,14 @@
       <c r="A276" t="s">
         <v>295</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>384</v>
+      <c r="B276" t="s">
+        <v>350</v>
       </c>
       <c r="C276" t="s">
         <v>384</v>
       </c>
-      <c r="D276" t="s">
-        <v>350</v>
+      <c r="D276" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E276">
         <v>230</v>
@@ -35848,14 +35848,14 @@
       <c r="A277" t="s">
         <v>296</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>611</v>
+      <c r="B277" t="s">
+        <v>344</v>
       </c>
       <c r="C277" t="s">
         <v>611</v>
       </c>
-      <c r="D277" t="s">
-        <v>344</v>
+      <c r="D277" s="6" t="s">
+        <v>611</v>
       </c>
       <c r="E277">
         <v>172</v>
@@ -35877,14 +35877,14 @@
       <c r="A278" t="s">
         <v>297</v>
       </c>
-      <c r="B278" s="6" t="s">
-        <v>612</v>
+      <c r="B278" t="s">
+        <v>348</v>
       </c>
       <c r="C278" t="s">
         <v>612</v>
       </c>
-      <c r="D278" t="s">
-        <v>348</v>
+      <c r="D278" s="6" t="s">
+        <v>612</v>
       </c>
       <c r="E278">
         <v>978</v>
@@ -35906,14 +35906,14 @@
       <c r="A279" t="s">
         <v>298</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>613</v>
+      <c r="B279" t="s">
+        <v>348</v>
       </c>
       <c r="C279" t="s">
         <v>613</v>
       </c>
-      <c r="D279" t="s">
-        <v>348</v>
+      <c r="D279" s="6" t="s">
+        <v>613</v>
       </c>
       <c r="E279">
         <v>537</v>
@@ -35935,14 +35935,14 @@
       <c r="A280" t="s">
         <v>299</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>614</v>
+      <c r="B280" t="s">
+        <v>348</v>
       </c>
       <c r="C280" t="s">
         <v>613</v>
       </c>
-      <c r="D280" t="s">
-        <v>348</v>
+      <c r="D280" s="6" t="s">
+        <v>614</v>
       </c>
       <c r="E280">
         <v>940</v>
@@ -35964,14 +35964,14 @@
       <c r="A281" t="s">
         <v>300</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>615</v>
+      <c r="B281" t="s">
+        <v>350</v>
       </c>
       <c r="C281" t="s">
         <v>616</v>
       </c>
-      <c r="D281" t="s">
-        <v>350</v>
+      <c r="D281" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="E281">
         <v>561</v>
@@ -35993,14 +35993,14 @@
       <c r="A282" t="s">
         <v>301</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>617</v>
+      <c r="B282" t="s">
+        <v>350</v>
       </c>
       <c r="C282" t="s">
         <v>616</v>
       </c>
-      <c r="D282" t="s">
-        <v>350</v>
+      <c r="D282" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="E282">
         <v>376</v>
@@ -36022,14 +36022,14 @@
       <c r="A283" t="s">
         <v>302</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>618</v>
+      <c r="B283" t="s">
+        <v>344</v>
       </c>
       <c r="C283" t="s">
         <v>618</v>
       </c>
-      <c r="D283" t="s">
-        <v>344</v>
+      <c r="D283" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="E283">
         <v>862</v>
@@ -36051,14 +36051,14 @@
       <c r="A284" t="s">
         <v>303</v>
       </c>
-      <c r="B284" s="6" t="s">
-        <v>619</v>
+      <c r="B284" t="s">
+        <v>344</v>
       </c>
       <c r="C284" t="s">
         <v>619</v>
       </c>
-      <c r="D284" t="s">
-        <v>344</v>
+      <c r="D284" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="E284">
         <v>205</v>
@@ -36080,14 +36080,14 @@
       <c r="A285" t="s">
         <v>304</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>620</v>
+      <c r="B285" t="s">
+        <v>352</v>
       </c>
       <c r="C285" t="s">
         <v>620</v>
       </c>
-      <c r="D285" t="s">
-        <v>352</v>
+      <c r="D285" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="E285">
         <v>1418</v>
@@ -36109,14 +36109,14 @@
       <c r="A286" t="s">
         <v>305</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>621</v>
+      <c r="B286" t="s">
+        <v>352</v>
       </c>
       <c r="C286" t="s">
         <v>622</v>
       </c>
-      <c r="D286" t="s">
-        <v>352</v>
+      <c r="D286" s="6" t="s">
+        <v>621</v>
       </c>
       <c r="E286">
         <v>2124</v>
@@ -36138,14 +36138,14 @@
       <c r="A287" t="s">
         <v>306</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>623</v>
+      <c r="B287" t="s">
+        <v>352</v>
       </c>
       <c r="C287" t="s">
         <v>622</v>
       </c>
-      <c r="D287" t="s">
-        <v>352</v>
+      <c r="D287" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="E287">
         <v>513</v>
@@ -36167,14 +36167,14 @@
       <c r="A288" t="s">
         <v>307</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>624</v>
+      <c r="B288" t="s">
+        <v>350</v>
       </c>
       <c r="C288" t="s">
         <v>624</v>
       </c>
-      <c r="D288" t="s">
-        <v>350</v>
+      <c r="D288" s="6" t="s">
+        <v>624</v>
       </c>
       <c r="E288">
         <v>686</v>
@@ -36196,14 +36196,14 @@
       <c r="A289" t="s">
         <v>308</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>385</v>
+      <c r="B289" t="s">
+        <v>348</v>
       </c>
       <c r="C289" t="s">
         <v>385</v>
       </c>
-      <c r="D289" t="s">
-        <v>348</v>
+      <c r="D289" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="E289">
         <v>399</v>
@@ -36225,14 +36225,14 @@
       <c r="A290" t="s">
         <v>309</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>386</v>
+      <c r="B290" t="s">
+        <v>348</v>
       </c>
       <c r="C290" t="s">
         <v>386</v>
       </c>
-      <c r="D290" t="s">
-        <v>348</v>
+      <c r="D290" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="E290">
         <v>260</v>
@@ -36254,14 +36254,14 @@
       <c r="A291" t="s">
         <v>310</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>625</v>
+      <c r="B291" t="s">
+        <v>350</v>
       </c>
       <c r="C291" t="s">
         <v>625</v>
       </c>
-      <c r="D291" t="s">
-        <v>350</v>
+      <c r="D291" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="E291">
         <v>619</v>
@@ -36283,14 +36283,14 @@
       <c r="A292" t="s">
         <v>311</v>
       </c>
-      <c r="B292" s="6" t="s">
-        <v>626</v>
+      <c r="B292" t="s">
+        <v>346</v>
       </c>
       <c r="C292" t="s">
         <v>626</v>
       </c>
-      <c r="D292" t="s">
-        <v>346</v>
+      <c r="D292" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="E292">
         <v>626</v>
@@ -36312,14 +36312,14 @@
       <c r="A293" t="s">
         <v>312</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>627</v>
+      <c r="B293" t="s">
+        <v>346</v>
       </c>
       <c r="C293" t="s">
         <v>627</v>
       </c>
-      <c r="D293" t="s">
-        <v>346</v>
+      <c r="D293" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="E293">
         <v>342</v>
@@ -36341,14 +36341,14 @@
       <c r="A294" t="s">
         <v>313</v>
       </c>
-      <c r="B294" s="6" t="s">
-        <v>628</v>
+      <c r="B294" t="s">
+        <v>348</v>
       </c>
       <c r="C294" t="s">
         <v>629</v>
       </c>
-      <c r="D294" t="s">
-        <v>348</v>
+      <c r="D294" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="E294">
         <v>1281</v>
@@ -36370,14 +36370,14 @@
       <c r="A295" t="s">
         <v>314</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>397</v>
+      <c r="B295" t="s">
+        <v>348</v>
       </c>
       <c r="C295" t="s">
         <v>629</v>
       </c>
-      <c r="D295" t="s">
-        <v>348</v>
+      <c r="D295" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="E295">
         <v>463</v>
@@ -36399,14 +36399,14 @@
       <c r="A296" t="s">
         <v>315</v>
       </c>
-      <c r="B296" s="6" t="s">
-        <v>630</v>
+      <c r="B296" t="s">
+        <v>348</v>
       </c>
       <c r="C296" t="s">
         <v>629</v>
       </c>
-      <c r="D296" t="s">
-        <v>348</v>
+      <c r="D296" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="E296">
         <v>292</v>
@@ -36428,14 +36428,14 @@
       <c r="A297" t="s">
         <v>316</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>388</v>
+      <c r="B297" t="s">
+        <v>352</v>
       </c>
       <c r="C297" t="s">
         <v>388</v>
       </c>
-      <c r="D297" t="s">
-        <v>352</v>
+      <c r="D297" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="E297">
         <v>760</v>
@@ -36457,14 +36457,14 @@
       <c r="A298" t="s">
         <v>317</v>
       </c>
-      <c r="B298" s="6" t="s">
-        <v>631</v>
+      <c r="B298" t="s">
+        <v>350</v>
       </c>
       <c r="C298" t="s">
         <v>389</v>
       </c>
-      <c r="D298" t="s">
-        <v>350</v>
+      <c r="D298" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="E298">
         <v>1193</v>
@@ -36486,14 +36486,14 @@
       <c r="A299" t="s">
         <v>318</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>632</v>
+      <c r="B299" t="s">
+        <v>350</v>
       </c>
       <c r="C299" t="s">
         <v>389</v>
       </c>
-      <c r="D299" t="s">
-        <v>350</v>
+      <c r="D299" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="E299">
         <v>934</v>
@@ -36515,14 +36515,14 @@
       <c r="A300" t="s">
         <v>319</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>633</v>
+      <c r="B300" t="s">
+        <v>348</v>
       </c>
       <c r="C300" t="s">
         <v>633</v>
       </c>
-      <c r="D300" t="s">
-        <v>348</v>
+      <c r="D300" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="E300">
         <v>859</v>
@@ -36544,14 +36544,14 @@
       <c r="A301" t="s">
         <v>320</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>634</v>
+      <c r="B301" t="s">
+        <v>350</v>
       </c>
       <c r="C301" t="s">
         <v>634</v>
       </c>
-      <c r="D301" t="s">
-        <v>350</v>
+      <c r="D301" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="E301">
         <v>434</v>
@@ -36573,14 +36573,14 @@
       <c r="A302" t="s">
         <v>321</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>635</v>
+      <c r="B302" t="s">
+        <v>344</v>
       </c>
       <c r="C302" t="s">
         <v>635</v>
       </c>
-      <c r="D302" t="s">
-        <v>344</v>
+      <c r="D302" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="E302">
         <v>791</v>
@@ -36602,14 +36602,14 @@
       <c r="A303" t="s">
         <v>322</v>
       </c>
-      <c r="B303" s="6" t="s">
-        <v>636</v>
+      <c r="B303" t="s">
+        <v>348</v>
       </c>
       <c r="C303" t="s">
         <v>636</v>
       </c>
-      <c r="D303" t="s">
-        <v>348</v>
+      <c r="D303" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="E303">
         <v>912</v>
@@ -36631,14 +36631,14 @@
       <c r="A304" t="s">
         <v>323</v>
       </c>
-      <c r="B304" s="6" t="s">
-        <v>637</v>
+      <c r="B304" t="s">
+        <v>346</v>
       </c>
       <c r="C304" t="s">
         <v>638</v>
       </c>
-      <c r="D304" t="s">
-        <v>346</v>
+      <c r="D304" s="6" t="s">
+        <v>637</v>
       </c>
       <c r="E304">
         <v>370</v>
@@ -36660,14 +36660,14 @@
       <c r="A305" t="s">
         <v>324</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>639</v>
+      <c r="B305" t="s">
+        <v>346</v>
       </c>
       <c r="C305" t="s">
         <v>638</v>
       </c>
-      <c r="D305" t="s">
-        <v>346</v>
+      <c r="D305" s="6" t="s">
+        <v>639</v>
       </c>
       <c r="E305">
         <v>1450</v>
@@ -36689,14 +36689,14 @@
       <c r="A306" t="s">
         <v>325</v>
       </c>
-      <c r="B306" s="6" t="s">
-        <v>640</v>
+      <c r="B306" t="s">
+        <v>344</v>
       </c>
       <c r="C306" t="s">
         <v>640</v>
       </c>
-      <c r="D306" t="s">
-        <v>344</v>
+      <c r="D306" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="E306">
         <v>509</v>
@@ -36718,14 +36718,14 @@
       <c r="A307" t="s">
         <v>326</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>641</v>
+      <c r="B307" t="s">
+        <v>350</v>
       </c>
       <c r="C307" t="s">
         <v>641</v>
       </c>
-      <c r="D307" t="s">
-        <v>350</v>
+      <c r="D307" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="E307">
         <v>586</v>
@@ -36747,14 +36747,14 @@
       <c r="A308" t="s">
         <v>327</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>642</v>
+      <c r="B308" t="s">
+        <v>344</v>
       </c>
       <c r="C308" t="s">
         <v>643</v>
       </c>
-      <c r="D308" t="s">
-        <v>344</v>
+      <c r="D308" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="E308">
         <v>314</v>
@@ -36776,14 +36776,14 @@
       <c r="A309" t="s">
         <v>328</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>644</v>
+      <c r="B309" t="s">
+        <v>344</v>
       </c>
       <c r="C309" t="s">
         <v>643</v>
       </c>
-      <c r="D309" t="s">
-        <v>344</v>
+      <c r="D309" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="E309">
         <v>509</v>
@@ -36805,14 +36805,14 @@
       <c r="A310" t="s">
         <v>329</v>
       </c>
-      <c r="B310" s="6" t="s">
-        <v>645</v>
+      <c r="B310" t="s">
+        <v>350</v>
       </c>
       <c r="C310" t="s">
         <v>645</v>
       </c>
-      <c r="D310" t="s">
-        <v>350</v>
+      <c r="D310" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="E310">
         <v>410</v>
@@ -36834,14 +36834,14 @@
       <c r="A311" t="s">
         <v>330</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>646</v>
+      <c r="B311" t="s">
+        <v>352</v>
       </c>
       <c r="C311" t="s">
         <v>646</v>
       </c>
-      <c r="D311" t="s">
-        <v>352</v>
+      <c r="D311" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="E311">
         <v>744</v>
@@ -36863,14 +36863,14 @@
       <c r="A312" t="s">
         <v>331</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>647</v>
+      <c r="B312" t="s">
+        <v>348</v>
       </c>
       <c r="C312" t="s">
         <v>647</v>
       </c>
-      <c r="D312" t="s">
-        <v>348</v>
+      <c r="D312" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="E312">
         <v>704</v>
@@ -36892,7 +36892,7 @@
       <c r="A313" t="s">
         <v>332</v>
       </c>
-      <c r="D313" t="s">
+      <c r="B313" t="s">
         <v>341</v>
       </c>
       <c r="E313">
@@ -36915,7 +36915,7 @@
       <c r="A314" t="s">
         <v>333</v>
       </c>
-      <c r="D314" t="s">
+      <c r="B314" t="s">
         <v>341</v>
       </c>
       <c r="E314">
@@ -36938,7 +36938,7 @@
       <c r="A315" t="s">
         <v>334</v>
       </c>
-      <c r="D315" t="s">
+      <c r="B315" t="s">
         <v>341</v>
       </c>
       <c r="E315">
@@ -36961,7 +36961,7 @@
       <c r="A316" t="s">
         <v>335</v>
       </c>
-      <c r="D316" t="s">
+      <c r="B316" t="s">
         <v>341</v>
       </c>
       <c r="E316">
@@ -36984,7 +36984,7 @@
       <c r="A317" t="s">
         <v>336</v>
       </c>
-      <c r="D317" t="s">
+      <c r="B317" t="s">
         <v>341</v>
       </c>
       <c r="E317">
@@ -37005,7 +37005,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E318">
         <v>296582</v>
@@ -37036,7 +37036,7 @@
   </sheetPr>
   <dimension ref="A1:C1942"/>
   <sheetViews>
-    <sheetView topLeftCell="A1854" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
@@ -37052,10 +37052,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -58433,7 +58433,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -60990,13 +60990,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:4">
